--- a/results/empty-48-48.map_10t_25i_0.75h_processed.xlsx
+++ b/results/empty-48-48.map_10t_25i_0.75h_processed.xlsx
@@ -542,28 +542,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -595,28 +595,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="C3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="D3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="E3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="F3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="G3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="H3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="I3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,28 +648,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="C4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="D4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="E4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="F4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="G4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="H4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="I4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="C5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="D5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="E5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="F5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="G5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="H5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="I5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -807,28 +807,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="C7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="D7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="E7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="F7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="G7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="H7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="I7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -860,28 +860,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="C8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="D8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="E8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="F8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="G8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="H8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="I8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="C9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="D9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="E9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="F9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="G9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="H9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="I9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -966,28 +966,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1019,28 +1019,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103.63</v>
+        <v>99.974</v>
       </c>
       <c r="C11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1072,28 +1072,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="C12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="D12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="E12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="F12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="G12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="H12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="I12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1125,28 +1125,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="C13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="D13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="E13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="F13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="G13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="H13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="I13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="C14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="D14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="E14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="F14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="G14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="H14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="I14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1231,28 +1231,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="C15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="D15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="E15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="F15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="G15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="H15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="I15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1284,28 +1284,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="C16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="D16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="E16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="F16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="G16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="H16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="I16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1337,28 +1337,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="C17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="D17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="E17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="F17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="G17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="H17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="I17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1390,28 +1390,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="C18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="D18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="E18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="F18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="G18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="I18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1443,28 +1443,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="C19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="D19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="E19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="F19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="G19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="H19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="I19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1549,28 +1549,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="C21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="D21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="E21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="F21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="G21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="H21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="I21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1602,28 +1602,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="C22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="D22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="E22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="F22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="G22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="H22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="I22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1655,28 +1655,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="C23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="D23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="E23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="F23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="G23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="H23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="I23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1708,28 +1708,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="C24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="D24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="E24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="F24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="G24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="H24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="I24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1761,28 +1761,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="C25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="D25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="E25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="F25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="G25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="I25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1814,28 +1814,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="C26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="D26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="E26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="F26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="G26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="H26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="I26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1940,31 +1940,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1581</v>
+        <v>1223</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00695812189951539</v>
+        <v>0.005685650045052171</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4187562529696152</v>
+        <v>0.3377118239877746</v>
       </c>
       <c r="F2" t="n">
-        <v>1581</v>
+        <v>1223</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09212738263886422</v>
+        <v>0.05328440305311233</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2435624019708484</v>
+        <v>0.2272830200381577</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0448701677378267</v>
+        <v>0.02817300159949809</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02749674848746508</v>
+        <v>0.02044179092627019</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002889936557039618</v>
+        <v>0.002260844339616597</v>
       </c>
     </row>
     <row r="3">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1604</v>
+        <v>885</v>
       </c>
       <c r="D3" t="n">
-        <v>0.677483773091808</v>
+        <v>0.3793906597420573</v>
       </c>
       <c r="E3" t="n">
-        <v>1.237579050008208</v>
+        <v>0.7744612089591101</v>
       </c>
       <c r="F3" t="n">
-        <v>1604</v>
+        <v>885</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08634316071402282</v>
+        <v>0.04153960605617613</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9341685241088271</v>
+        <v>0.5990697327069938</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06854444148484617</v>
+        <v>0.03315034916158766</v>
       </c>
       <c r="J3" t="n">
-        <v>0.136716224020347</v>
+        <v>0.09394559124484658</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003135811421088874</v>
+        <v>0.001747618662193418</v>
       </c>
     </row>
     <row r="4">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>915</v>
+        <v>544</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4120056835236028</v>
+        <v>0.2524303861428052</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8862350690178573</v>
+        <v>0.6126450049923733</v>
       </c>
       <c r="F4" t="n">
-        <v>915</v>
+        <v>544</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06403310783207417</v>
+        <v>0.03289198910351843</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6374954499769956</v>
+        <v>0.4643802002537996</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03997997695114464</v>
+        <v>0.01999731839168817</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1378420451655984</v>
+        <v>0.09108148701488972</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001862020581029356</v>
+        <v>0.001120073022320867</v>
       </c>
     </row>
     <row r="5">
@@ -2045,31 +2045,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1934</v>
+        <v>1946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00918516528327018</v>
+        <v>0.009442256879992783</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5536308500450104</v>
+        <v>0.6111296790186316</v>
       </c>
       <c r="F5" t="n">
-        <v>1934</v>
+        <v>1946</v>
       </c>
       <c r="G5" t="n">
-        <v>0.150109504815191</v>
+        <v>0.1501414234517142</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2654878385365009</v>
+        <v>0.2671219108160585</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1048179792705923</v>
+        <v>0.1558235726552084</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01928055949974805</v>
+        <v>0.02344024449121207</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00411968759726733</v>
+        <v>0.003961515729315579</v>
       </c>
     </row>
     <row r="6">
@@ -2080,31 +2080,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1636</v>
+        <v>984</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7099182407837361</v>
+        <v>0.5459003929281607</v>
       </c>
       <c r="E6" t="n">
-        <v>1.470027499017306</v>
+        <v>0.970350180985406</v>
       </c>
       <c r="F6" t="n">
-        <v>1636</v>
+        <v>984</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1492723574629053</v>
+        <v>0.09078490221872926</v>
       </c>
       <c r="H6" t="n">
-        <v>0.810206736321561</v>
+        <v>0.6056806271662936</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1286429503234103</v>
+        <v>0.09021030890289694</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3689538619946688</v>
+        <v>0.1755621788324788</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003706119139678776</v>
+        <v>0.002211236045695841</v>
       </c>
     </row>
     <row r="7">
@@ -2115,31 +2115,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>922</v>
+        <v>606</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4268643449759111</v>
+        <v>0.2766975325066596</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8446542300516739</v>
+        <v>0.5720603689551353</v>
       </c>
       <c r="F7" t="n">
-        <v>922</v>
+        <v>606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1077466587303206</v>
+        <v>0.0671745678409934</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4855924394214526</v>
+        <v>0.3143791784532368</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06750061840284616</v>
+        <v>0.05165273905731738</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1763396591413766</v>
+        <v>0.1339503385825083</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00216986273881048</v>
+        <v>0.001341449446044862</v>
       </c>
     </row>
     <row r="8">
@@ -2150,31 +2150,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>915</v>
+        <v>544</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9479853542288765</v>
+        <v>0.4503651971463114</v>
       </c>
       <c r="E8" t="n">
-        <v>1.467155355028808</v>
+        <v>0.7263203279580921</v>
       </c>
       <c r="F8" t="n">
-        <v>915</v>
+        <v>544</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06540848163422197</v>
+        <v>0.03273083677049726</v>
       </c>
       <c r="H8" t="n">
-        <v>1.000765318283811</v>
+        <v>0.4812317074974999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04102468397468328</v>
+        <v>0.01985810068435967</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3527242972049862</v>
+        <v>0.1881115947617218</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001893267501145601</v>
+        <v>0.001136283273808658</v>
       </c>
     </row>
     <row r="9">
@@ -2185,11 +2185,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21304</v>
+        <v>21077</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>26.25036615715362</v>
+        <v>25.96017615601886</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2210,31 +2210,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1129</v>
+        <v>1705</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005068972706794739</v>
+        <v>0.008978565456345677</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1786951390095055</v>
+        <v>0.2327162929577753</v>
       </c>
       <c r="F10" t="n">
-        <v>1129</v>
+        <v>1705</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05578721594065428</v>
+        <v>0.07568602298852056</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05069258308503777</v>
+        <v>0.07851333578582853</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03767079033423215</v>
+        <v>0.04056193761061877</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02682776132132858</v>
+        <v>0.02606532501522452</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002046914189122617</v>
+        <v>0.003053883789107203</v>
       </c>
     </row>
     <row r="11">
@@ -2245,31 +2245,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>909</v>
+        <v>1531</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3996461074566469</v>
+        <v>0.5934810333419591</v>
       </c>
       <c r="E11" t="n">
-        <v>0.661149773048237</v>
+        <v>0.9239977229153737</v>
       </c>
       <c r="F11" t="n">
-        <v>909</v>
+        <v>1531</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04629151395056397</v>
+        <v>0.06795368320308626</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4499377424363047</v>
+        <v>0.6759707032470033</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03782508464064449</v>
+        <v>0.05883438338059932</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1203871215693653</v>
+        <v>0.1094442299799994</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001746391295455396</v>
+        <v>0.002882741508074105</v>
       </c>
     </row>
     <row r="12">
@@ -2280,31 +2280,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>541</v>
+        <v>927</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2495424579828978</v>
+        <v>0.3787560428027064</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4624810930108652</v>
+        <v>0.6342446439666674</v>
       </c>
       <c r="F12" t="n">
-        <v>541</v>
+        <v>927</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03525548870675266</v>
+        <v>0.05022454634308815</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2818521722219884</v>
+        <v>0.4295406733872369</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02379713847767562</v>
+        <v>0.03616230969782919</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1174847054062411</v>
+        <v>0.111326988437213</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001064888667315245</v>
+        <v>0.00174712878651917</v>
       </c>
     </row>
     <row r="13">
@@ -2315,31 +2315,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1515</v>
+        <v>2674</v>
       </c>
       <c r="D13" t="n">
-        <v>0.007267286069691181</v>
+        <v>0.01256408751942217</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3297035420546308</v>
+        <v>0.5815779569093138</v>
       </c>
       <c r="F13" t="n">
-        <v>1515</v>
+        <v>2674</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1177331390790641</v>
+        <v>0.2055729686981067</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07477334479335696</v>
+        <v>0.1296710041351616</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1052854879526421</v>
+        <v>0.1967043478507549</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02093227102886885</v>
+        <v>0.02995341643691063</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003133766003884375</v>
+        <v>0.005259601981379092</v>
       </c>
     </row>
     <row r="14">
@@ -2350,31 +2350,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1050</v>
+        <v>1724</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4124081030022353</v>
+        <v>0.6598968871403486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8706756780156866</v>
+        <v>1.338036869070493</v>
       </c>
       <c r="F14" t="n">
-        <v>1050</v>
+        <v>1724</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0969490553252399</v>
+        <v>0.1596971731632948</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4748961227014661</v>
+        <v>0.7685907226987183</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09474803612101823</v>
+        <v>0.1827724042814225</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1957935605896637</v>
+        <v>0.2128155676182359</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002374810166656971</v>
+        <v>0.003753667115233839</v>
       </c>
     </row>
     <row r="15">
@@ -2385,31 +2385,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>573</v>
+        <v>1061</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2587835520971566</v>
+        <v>0.4299124635290354</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5590978120453656</v>
+        <v>0.8766113080782816</v>
       </c>
       <c r="F15" t="n">
-        <v>573</v>
+        <v>1061</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06905676960013807</v>
+        <v>0.1169860197696835</v>
       </c>
       <c r="H15" t="n">
-        <v>0.295873548137024</v>
+        <v>0.4980298321461305</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04338599042966962</v>
+        <v>0.1010908127063885</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1461632249411196</v>
+        <v>0.1519234369043261</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001320074545219541</v>
+        <v>0.002287742565385997</v>
       </c>
     </row>
     <row r="16">
@@ -2420,31 +2420,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>541</v>
+        <v>927</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4394891791744158</v>
+        <v>0.8869589666137472</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7689330980647355</v>
+        <v>1.288427755003795</v>
       </c>
       <c r="F16" t="n">
-        <v>541</v>
+        <v>927</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03530539153143764</v>
+        <v>0.05097326391842216</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4715278347721323</v>
+        <v>0.9385166261345148</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02430955634918064</v>
+        <v>0.03737241646740586</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2334950815420598</v>
+        <v>0.2542338485363871</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001122137880884111</v>
+        <v>0.001887922757305205</v>
       </c>
     </row>
     <row r="17">
@@ -2455,11 +2455,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19938</v>
+        <v>19784</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>26.24905953707639</v>
+        <v>26.02835806668736</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1679</v>
+        <v>1722</v>
       </c>
       <c r="D18" t="n">
-        <v>0.007005557301454246</v>
+        <v>0.007741442415863276</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2124497860204428</v>
+        <v>0.2532222380395979</v>
       </c>
       <c r="F18" t="n">
-        <v>1679</v>
+        <v>1722</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06741773732937872</v>
+        <v>0.09135708026587963</v>
       </c>
       <c r="H18" t="n">
-        <v>0.071918546105735</v>
+        <v>0.07846210722345859</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0360720562748611</v>
+        <v>0.04511885344982147</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02576624951325357</v>
+        <v>0.02631594345439225</v>
       </c>
       <c r="K18" t="n">
-        <v>0.003031815285794437</v>
+        <v>0.003041259944438934</v>
       </c>
     </row>
     <row r="19">
@@ -2515,31 +2515,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1060</v>
+        <v>1832</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4463730473071337</v>
+        <v>0.7186196257825941</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7040235720342025</v>
+        <v>1.124947004020214</v>
       </c>
       <c r="F19" t="n">
-        <v>1060</v>
+        <v>1832</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04935769503936172</v>
+        <v>0.09095784998498857</v>
       </c>
       <c r="H19" t="n">
-        <v>0.504368587047793</v>
+        <v>0.8159605726832524</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0396137066418305</v>
+        <v>0.07063495030160993</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1028862613020465</v>
+        <v>0.133662455715239</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002026900532655418</v>
+        <v>0.003438595682382584</v>
       </c>
     </row>
     <row r="20">
@@ -2550,31 +2550,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>632</v>
+        <v>1037</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2850122859235853</v>
+        <v>0.4250619524391368</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4870846510166302</v>
+        <v>0.733989670057781</v>
       </c>
       <c r="F20" t="n">
-        <v>632</v>
+        <v>1037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03578661032952368</v>
+        <v>0.0681352928513661</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3214164734818041</v>
+        <v>0.4856193503364921</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02241970621980727</v>
+        <v>0.03968499088659883</v>
       </c>
       <c r="J20" t="n">
-        <v>0.102719487156719</v>
+        <v>0.1324952123686671</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001271009212359786</v>
+        <v>0.00201274745631963</v>
       </c>
     </row>
     <row r="21">
@@ -2585,31 +2585,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3182</v>
+        <v>2352</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01443866023328155</v>
+        <v>0.01080254593398422</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8006199130322784</v>
+        <v>0.4952431949786842</v>
       </c>
       <c r="F21" t="n">
-        <v>3182</v>
+        <v>2352</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2517031175084412</v>
+        <v>0.1809568640310317</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1551894657313824</v>
+        <v>0.1122790691442788</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3247256776085123</v>
+        <v>0.1623269424308091</v>
       </c>
       <c r="J21" t="n">
-        <v>0.045585110434331</v>
+        <v>0.02266854688059539</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00652511534281075</v>
+        <v>0.004589538322761655</v>
       </c>
     </row>
     <row r="22">
@@ -2620,31 +2620,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1062</v>
+        <v>1950</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4542444384424016</v>
+        <v>0.7729765487601981</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8777594659477472</v>
+        <v>1.542968553025275</v>
       </c>
       <c r="F22" t="n">
-        <v>1062</v>
+        <v>1950</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09796455479227006</v>
+        <v>0.1810207939706743</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5183659608010203</v>
+        <v>0.8958763955160975</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07895546487998217</v>
+        <v>0.1971234075026587</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1739060197724029</v>
+        <v>0.2531553101725876</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002541853697039187</v>
+        <v>0.004266075906343758</v>
       </c>
     </row>
     <row r="23">
@@ -2655,31 +2655,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>634</v>
+        <v>1107</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2868661797838286</v>
+        <v>0.4472223554039374</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5749496170319617</v>
+        <v>0.9224270039703697</v>
       </c>
       <c r="F23" t="n">
-        <v>634</v>
+        <v>1107</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07235121191479266</v>
+        <v>0.1258011552272364</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3265790410805494</v>
+        <v>0.5175981629872695</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04021646152250469</v>
+        <v>0.08780518523417413</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1307164781028405</v>
+        <v>0.1822534170933068</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001472341595217586</v>
+        <v>0.002449588617309928</v>
       </c>
     </row>
     <row r="24">
@@ -2690,31 +2690,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>632</v>
+        <v>1037</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4645215315977111</v>
+        <v>1.017306371126324</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7570882790023461</v>
+        <v>1.537435146979988</v>
       </c>
       <c r="F24" t="n">
-        <v>632</v>
+        <v>1037</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03642544115427881</v>
+        <v>0.06769890675786883</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5008921944536269</v>
+        <v>1.076063886866905</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0229219205211848</v>
+        <v>0.04165735829155892</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1919876309111714</v>
+        <v>0.3438214730704203</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001296436996199191</v>
+        <v>0.00215533166192472</v>
       </c>
     </row>
     <row r="25">
@@ -2725,11 +2725,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20353</v>
+        <v>22347</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>24.95406819402706</v>
+        <v>26.02196094405372</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2750,31 +2750,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1582</v>
+        <v>1402</v>
       </c>
       <c r="D26" t="n">
-        <v>0.006577656604349613</v>
+        <v>0.006553171551786363</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3166275570401922</v>
+        <v>0.1941884419647977</v>
       </c>
       <c r="F26" t="n">
-        <v>1582</v>
+        <v>1402</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07220812025479972</v>
+        <v>0.06274015572853386</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06896426086314023</v>
+        <v>0.06487322109751403</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1380585581064224</v>
+        <v>0.0344433612190187</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02685599273536354</v>
+        <v>0.0223200706532225</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002792604034766555</v>
+        <v>0.00247754470910877</v>
       </c>
     </row>
     <row r="27">
@@ -2785,31 +2785,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1373</v>
+        <v>1078</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5327535335673019</v>
+        <v>0.4361992123303935</v>
       </c>
       <c r="E27" t="n">
-        <v>0.861682347021997</v>
+        <v>0.6868847639998421</v>
       </c>
       <c r="F27" t="n">
-        <v>1373</v>
+        <v>1078</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07189581042621285</v>
+        <v>0.04867076070513576</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6071848564315587</v>
+        <v>0.4906583550618961</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05971318599767983</v>
+        <v>0.04190949280746281</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1128283503931016</v>
+        <v>0.09751945058815181</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00262438936624676</v>
+        <v>0.002040857682004571</v>
       </c>
     </row>
     <row r="28">
@@ -2820,31 +2820,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>782</v>
+        <v>638</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3276404901407659</v>
+        <v>0.2875973440241069</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5780228440416977</v>
+        <v>0.4936885240022093</v>
       </c>
       <c r="F28" t="n">
-        <v>782</v>
+        <v>638</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05188974202610552</v>
+        <v>0.03789700206834823</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3725915504619479</v>
+        <v>0.3236962727969512</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03295640787109733</v>
+        <v>0.02597629174124449</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1147652318468317</v>
+        <v>0.1011447958881035</v>
       </c>
       <c r="K28" t="n">
-        <v>0.001520894118584692</v>
+        <v>0.00123063602950424</v>
       </c>
     </row>
     <row r="29">
@@ -2855,31 +2855,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2751</v>
+        <v>2191</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01262715831398964</v>
+        <v>0.01075391692575067</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6742212029639632</v>
+        <v>0.4858043950516731</v>
       </c>
       <c r="F29" t="n">
-        <v>2751</v>
+        <v>2191</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2175947242649272</v>
+        <v>0.1706255866447464</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1337799965403974</v>
+        <v>0.1081432235660031</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2663102024234831</v>
+        <v>0.1643707607872784</v>
       </c>
       <c r="J29" t="n">
-        <v>0.03633366851136088</v>
+        <v>0.02624977042432874</v>
       </c>
       <c r="K29" t="n">
-        <v>0.005650468752719462</v>
+        <v>0.004349754424765706</v>
       </c>
     </row>
     <row r="30">
@@ -2890,31 +2890,31 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1379</v>
+        <v>1159</v>
       </c>
       <c r="D30" t="n">
-        <v>0.545663486700505</v>
+        <v>0.4730874374508858</v>
       </c>
       <c r="E30" t="n">
-        <v>1.100786496070214</v>
+        <v>0.9611710659228265</v>
       </c>
       <c r="F30" t="n">
-        <v>1379</v>
+        <v>1159</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1305022338638082</v>
+        <v>0.1075461289146915</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6306378850713372</v>
+        <v>0.5413131833774969</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1190787893719971</v>
+        <v>0.111548290704377</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2096534906886518</v>
+        <v>0.1911008758470416</v>
       </c>
       <c r="K30" t="n">
-        <v>0.003125001210719347</v>
+        <v>0.00281527463812381</v>
       </c>
     </row>
     <row r="31">
@@ -2925,31 +2925,31 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>782</v>
+        <v>693</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3307317204307765</v>
+        <v>0.3147608520230278</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6800509379245341</v>
+        <v>0.6483927810331807</v>
       </c>
       <c r="F31" t="n">
-        <v>782</v>
+        <v>693</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09066788491327316</v>
+        <v>0.07953776093199849</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3794103165855631</v>
+        <v>0.3581313294125721</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05704528919886798</v>
+        <v>0.06049405538942665</v>
       </c>
       <c r="J31" t="n">
-        <v>0.146683061728254</v>
+        <v>0.1445223910268396</v>
       </c>
       <c r="K31" t="n">
-        <v>0.001797932432964444</v>
+        <v>0.001568048028275371</v>
       </c>
     </row>
     <row r="32">
@@ -2960,31 +2960,31 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>782</v>
+        <v>638</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6587278344668448</v>
+        <v>0.5278772059828043</v>
       </c>
       <c r="E32" t="n">
-        <v>1.065897560096346</v>
+        <v>0.8478221310069785</v>
       </c>
       <c r="F32" t="n">
-        <v>782</v>
+        <v>638</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05291093175765127</v>
+        <v>0.03847364825196564</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7042136426316574</v>
+        <v>0.5630676777800545</v>
       </c>
       <c r="I32" t="n">
-        <v>0.033620590926148</v>
+        <v>0.0262327539967373</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2691225013695657</v>
+        <v>0.2149101486429572</v>
       </c>
       <c r="K32" t="n">
-        <v>0.001601518015377223</v>
+        <v>0.001320032402873039</v>
       </c>
     </row>
     <row r="33">
@@ -2995,11 +2995,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21213</v>
+        <v>19547</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>25.38763896899763</v>
+        <v>25.89197546709329</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -3020,31 +3020,31 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1863</v>
+        <v>1596</v>
       </c>
       <c r="D34" t="n">
-        <v>0.007629468338564038</v>
+        <v>0.006848946446552873</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2531659100204706</v>
+        <v>0.1998781090369448</v>
       </c>
       <c r="F34" t="n">
-        <v>1863</v>
+        <v>1596</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08956085296813399</v>
+        <v>0.06170850421767682</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08040730992797762</v>
+        <v>0.06833331647794694</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04472438001539558</v>
+        <v>0.03451203391887248</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02600143826566637</v>
+        <v>0.02458728011697531</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003270350978709757</v>
+        <v>0.002789145801216364</v>
       </c>
     </row>
     <row r="35">
@@ -3055,31 +3055,31 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1835</v>
+        <v>1601</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8009607975836843</v>
+        <v>0.5301753442035988</v>
       </c>
       <c r="E35" t="n">
-        <v>1.208106986945495</v>
+        <v>0.8392258679959923</v>
       </c>
       <c r="F35" t="n">
-        <v>1835</v>
+        <v>1601</v>
       </c>
       <c r="G35" t="n">
-        <v>0.08262749912682921</v>
+        <v>0.06250771053601056</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8983074261341244</v>
+        <v>0.6098807980306447</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06769088748842478</v>
+        <v>0.0541243941988796</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1459910190897062</v>
+        <v>0.1008613830199465</v>
       </c>
       <c r="K35" t="n">
-        <v>0.003541076090186834</v>
+        <v>0.002987052663229406</v>
       </c>
     </row>
     <row r="36">
@@ -3090,31 +3090,31 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1086</v>
+        <v>927</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4323265791172162</v>
+        <v>0.3278439623536542</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7454210609430447</v>
+        <v>0.5619992269203067</v>
       </c>
       <c r="F36" t="n">
-        <v>1086</v>
+        <v>927</v>
       </c>
       <c r="G36" t="n">
-        <v>0.06059566314797848</v>
+        <v>0.04535331611987203</v>
       </c>
       <c r="H36" t="n">
-        <v>0.49250490416307</v>
+        <v>0.3765897483099252</v>
       </c>
       <c r="I36" t="n">
-        <v>0.04034301894716918</v>
+        <v>0.02992376161273569</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1439423827687278</v>
+        <v>0.1031609372003004</v>
       </c>
       <c r="K36" t="n">
-        <v>0.002091178554110229</v>
+        <v>0.00171995721757412</v>
       </c>
     </row>
     <row r="37">
@@ -3125,31 +3125,31 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2971</v>
+        <v>3329</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01370745163876563</v>
+        <v>0.1354644171660766</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6657267650589347</v>
+        <v>1.037878400995396</v>
       </c>
       <c r="F37" t="n">
-        <v>2971</v>
+        <v>3329</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2305794368730858</v>
+        <v>0.2647315317299217</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1460940953111276</v>
+        <v>0.283734877128154</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2358625101624057</v>
+        <v>0.4125353024573997</v>
       </c>
       <c r="J37" t="n">
-        <v>0.03151716093998402</v>
+        <v>0.05144499812740833</v>
       </c>
       <c r="K37" t="n">
-        <v>0.006078591453842819</v>
+        <v>0.006929045892320573</v>
       </c>
     </row>
     <row r="38">
@@ -3160,31 +3160,31 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1870</v>
+        <v>1794</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7110992429079488</v>
+        <v>0.6011284363921732</v>
       </c>
       <c r="E38" t="n">
-        <v>1.401645479956642</v>
+        <v>1.29833541798871</v>
       </c>
       <c r="F38" t="n">
-        <v>1870</v>
+        <v>1794</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1718265528324991</v>
+        <v>0.1659565611043945</v>
       </c>
       <c r="H38" t="n">
-        <v>0.823828914668411</v>
+        <v>0.7065644426038489</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1569440021412447</v>
+        <v>0.201426355401054</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2343409392051399</v>
+        <v>0.2097491542808712</v>
       </c>
       <c r="K38" t="n">
-        <v>0.004159600823186338</v>
+        <v>0.003954394138418138</v>
       </c>
     </row>
     <row r="39">
@@ -3195,31 +3195,31 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1122</v>
+        <v>1038</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4464156508911401</v>
+        <v>0.4731853232951835</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9048118259524927</v>
+        <v>0.9165793170686811</v>
       </c>
       <c r="F39" t="n">
-        <v>1122</v>
+        <v>1038</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1260057335020974</v>
+        <v>0.1175470827147365</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5162609234685078</v>
+        <v>0.5376721699722111</v>
       </c>
       <c r="I39" t="n">
-        <v>0.08302153984550387</v>
+        <v>0.103721888968721</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1706153872655705</v>
+        <v>0.1492258266080171</v>
       </c>
       <c r="K39" t="n">
-        <v>0.002523101633414626</v>
+        <v>0.00224501930642873</v>
       </c>
     </row>
     <row r="40">
@@ -3230,31 +3230,31 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1086</v>
+        <v>927</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8544961950974539</v>
+        <v>0.6552126463502645</v>
       </c>
       <c r="E40" t="n">
-        <v>1.317181774997152</v>
+        <v>0.980211968999356</v>
       </c>
       <c r="F40" t="n">
-        <v>1086</v>
+        <v>927</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06149489432573318</v>
+        <v>0.04648390435613692</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9163613956188783</v>
+        <v>0.7047664943384007</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0410212860442698</v>
+        <v>0.03100667265243828</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2898618278559297</v>
+        <v>0.1907277902355418</v>
       </c>
       <c r="K40" t="n">
-        <v>0.002247819793410599</v>
+        <v>0.001894224900752306</v>
       </c>
     </row>
     <row r="41">
@@ -3265,11 +3265,11 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21067</v>
+        <v>19572</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>25.13672106992453</v>
+        <v>25.41323394200299</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3290,31 +3290,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1531</v>
+        <v>1662</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006919350009411573</v>
+        <v>0.007145467563532293</v>
       </c>
       <c r="E42" t="n">
-        <v>0.223468232084997</v>
+        <v>0.2489676899276674</v>
       </c>
       <c r="F42" t="n">
-        <v>1531</v>
+        <v>1662</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0762808023719117</v>
+        <v>0.08565918973181397</v>
       </c>
       <c r="H42" t="n">
-        <v>0.06831252411939204</v>
+        <v>0.07403283193707466</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04119895142503083</v>
+        <v>0.0457232971675694</v>
       </c>
       <c r="J42" t="n">
-        <v>0.02733810746576637</v>
+        <v>0.03215005132369697</v>
       </c>
       <c r="K42" t="n">
-        <v>0.002747411956079304</v>
+        <v>0.002944318926893175</v>
       </c>
     </row>
     <row r="43">
@@ -3325,31 +3325,31 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1543</v>
+        <v>1440</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6508785098558292</v>
+        <v>0.5548598916502669</v>
       </c>
       <c r="E43" t="n">
-        <v>1.031297183013521</v>
+        <v>1.020748574053869</v>
       </c>
       <c r="F43" t="n">
-        <v>1543</v>
+        <v>1440</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07095683051738888</v>
+        <v>0.06913710630033165</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7317074567545205</v>
+        <v>0.6314196372404695</v>
       </c>
       <c r="I43" t="n">
-        <v>0.06856766738928854</v>
+        <v>0.06071625894401222</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1487267493503168</v>
+        <v>0.2485244628041983</v>
       </c>
       <c r="K43" t="n">
-        <v>0.00296826206613332</v>
+        <v>0.002772125997580588</v>
       </c>
     </row>
     <row r="44">
@@ -3360,31 +3360,31 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>913</v>
+        <v>868</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4035795452073216</v>
+        <v>0.3557400712743402</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6897027080412954</v>
+        <v>0.6308248519198969</v>
       </c>
       <c r="F44" t="n">
-        <v>913</v>
+        <v>868</v>
       </c>
       <c r="G44" t="n">
-        <v>0.05285133374854922</v>
+        <v>0.05169889819808304</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4538026261143386</v>
+        <v>0.4046229592058808</v>
       </c>
       <c r="I44" t="n">
-        <v>0.03811371710617095</v>
+        <v>0.03685776202473789</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1380234779790044</v>
+        <v>0.1309863447677344</v>
       </c>
       <c r="K44" t="n">
-        <v>0.001851910375989974</v>
+        <v>0.001651637256145477</v>
       </c>
     </row>
     <row r="45">
@@ -3395,31 +3395,31 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2117</v>
+        <v>2250</v>
       </c>
       <c r="D45" t="n">
-        <v>0.009955026558600366</v>
+        <v>0.01055547758005559</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5548502750461921</v>
+        <v>0.5796662289649248</v>
       </c>
       <c r="F45" t="n">
-        <v>2117</v>
+        <v>2250</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2828443851321936</v>
+        <v>0.2880026028724387</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1032109995139763</v>
+        <v>0.1094577184412628</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1284030441893265</v>
+        <v>0.1396190866362303</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02498236484825611</v>
+        <v>0.0258555430918932</v>
       </c>
       <c r="K45" t="n">
-        <v>0.004325196612626314</v>
+        <v>0.004640850704163313</v>
       </c>
     </row>
     <row r="46">
@@ -3430,31 +3430,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1735</v>
+        <v>1705</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7396244856063277</v>
+        <v>0.6026229239068925</v>
       </c>
       <c r="E46" t="n">
-        <v>1.433716302039102</v>
+        <v>1.262911272002384</v>
       </c>
       <c r="F46" t="n">
-        <v>1735</v>
+        <v>1705</v>
       </c>
       <c r="G46" t="n">
-        <v>0.160642372444272</v>
+        <v>0.1571183551568538</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8486715076724067</v>
+        <v>0.7071949813980609</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1616209472995251</v>
+        <v>0.1607360340422019</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2487915852107108</v>
+        <v>0.2242343367543072</v>
       </c>
       <c r="K46" t="n">
-        <v>0.004107698216103017</v>
+        <v>0.003659690148197114</v>
       </c>
     </row>
     <row r="47">
@@ -3465,31 +3465,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1055</v>
+        <v>944</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5748038664460182</v>
+        <v>0.3876084361691028</v>
       </c>
       <c r="E47" t="n">
-        <v>1.044627305003814</v>
+        <v>0.7971750679425895</v>
       </c>
       <c r="F47" t="n">
-        <v>1055</v>
+        <v>944</v>
       </c>
       <c r="G47" t="n">
-        <v>0.124207642278634</v>
+        <v>0.1095204680459574</v>
       </c>
       <c r="H47" t="n">
-        <v>0.6438494920730591</v>
+        <v>0.4490143195725977</v>
       </c>
       <c r="I47" t="n">
-        <v>0.08778289554174989</v>
+        <v>0.07256105309352279</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1803297157166526</v>
+        <v>0.1584045917261392</v>
       </c>
       <c r="K47" t="n">
-        <v>0.002384742838330567</v>
+        <v>0.002084970357827842</v>
       </c>
     </row>
     <row r="48">
@@ -3500,31 +3500,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>913</v>
+        <v>868</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9954333700006828</v>
+        <v>0.8311059133848175</v>
       </c>
       <c r="E48" t="n">
-        <v>1.457536734058522</v>
+        <v>1.260274289059453</v>
       </c>
       <c r="F48" t="n">
-        <v>913</v>
+        <v>868</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05432422575540841</v>
+        <v>0.05287302390206605</v>
       </c>
       <c r="H48" t="n">
-        <v>1.047356125898659</v>
+        <v>0.8810803984524682</v>
       </c>
       <c r="I48" t="n">
-        <v>0.03919027757365257</v>
+        <v>0.03809572453610599</v>
       </c>
       <c r="J48" t="n">
-        <v>0.3094836871605366</v>
+        <v>0.2812887447653338</v>
       </c>
       <c r="K48" t="n">
-        <v>0.001889353850856423</v>
+        <v>0.001798358047381043</v>
       </c>
     </row>
     <row r="49">
@@ -3535,11 +3535,11 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19310</v>
+        <v>21761</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>25.51795300305821</v>
+        <v>26.06398050184362</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -3560,31 +3560,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1476</v>
+        <v>2039</v>
       </c>
       <c r="D50" t="n">
-        <v>0.006508022430352867</v>
+        <v>0.008500154362991452</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2980182500323281</v>
+        <v>0.3401810309151188</v>
       </c>
       <c r="F50" t="n">
-        <v>1476</v>
+        <v>2039</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06480413791723549</v>
+        <v>0.07545885816216469</v>
       </c>
       <c r="H50" t="n">
-        <v>0.06414995121303946</v>
+        <v>0.08501147979404777</v>
       </c>
       <c r="I50" t="n">
-        <v>0.03580153500661254</v>
+        <v>0.03715977293904871</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1232860218733549</v>
+        <v>0.1288423060905188</v>
       </c>
       <c r="K50" t="n">
-        <v>0.002636445686221123</v>
+        <v>0.003550697350874543</v>
       </c>
     </row>
     <row r="51">
@@ -3595,31 +3595,31 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1252</v>
+        <v>2218</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5431271914858371</v>
+        <v>0.7041356038535014</v>
       </c>
       <c r="E51" t="n">
-        <v>0.843007859075442</v>
+        <v>1.059925382956862</v>
       </c>
       <c r="F51" t="n">
-        <v>1252</v>
+        <v>2218</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05474658031016588</v>
+        <v>0.07069166365545243</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6113825921202078</v>
+        <v>0.8124513594666496</v>
       </c>
       <c r="I51" t="n">
-        <v>0.04728080576751381</v>
+        <v>0.06278774293605238</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1203311661956832</v>
+        <v>0.09768696536775678</v>
       </c>
       <c r="K51" t="n">
-        <v>0.002386971493251622</v>
+        <v>0.004122225567698479</v>
       </c>
     </row>
     <row r="52">
@@ -3630,31 +3630,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>752</v>
+        <v>1442</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3220385689055547</v>
+        <v>0.5569675576407462</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5615934180095792</v>
+        <v>0.8286987360334024</v>
       </c>
       <c r="F52" t="n">
-        <v>752</v>
+        <v>1442</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04114040895365179</v>
+        <v>0.05481912987306714</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3644341396866366</v>
+        <v>0.6287395196268335</v>
       </c>
       <c r="I52" t="n">
-        <v>0.02891538653057069</v>
+        <v>0.03628977783955634</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1215398368658498</v>
+        <v>0.09790782176423818</v>
       </c>
       <c r="K52" t="n">
-        <v>0.001470839604735374</v>
+        <v>0.002717890194617212</v>
       </c>
     </row>
     <row r="53">
@@ -3665,31 +3665,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2517</v>
+        <v>4383</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01198652421589941</v>
+        <v>0.01942793757189065</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6401057619368657</v>
+        <v>1.094847174012102</v>
       </c>
       <c r="F53" t="n">
-        <v>2517</v>
+        <v>4383</v>
       </c>
       <c r="G53" t="n">
-        <v>0.196602618554607</v>
+        <v>0.3441256829537451</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1254007362294942</v>
+        <v>0.2125447299331427</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2599318531574681</v>
+        <v>0.4486710394266993</v>
       </c>
       <c r="J53" t="n">
-        <v>0.03961962298490107</v>
+        <v>0.05665595782920718</v>
       </c>
       <c r="K53" t="n">
-        <v>0.005293041467666626</v>
+        <v>0.008710360620170832</v>
       </c>
     </row>
     <row r="54">
@@ -3700,31 +3700,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1292</v>
+        <v>2425</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5559391566785052</v>
+        <v>0.8720614716876298</v>
       </c>
       <c r="E54" t="n">
-        <v>1.090050854021683</v>
+        <v>1.649566087988205</v>
       </c>
       <c r="F54" t="n">
-        <v>1292</v>
+        <v>2425</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1215760678751394</v>
+        <v>0.2228591794846579</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6381786292186007</v>
+        <v>1.015817823004909</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1191062752623111</v>
+        <v>0.216164400218986</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2008982736151665</v>
+        <v>0.1750265022274107</v>
       </c>
       <c r="K54" t="n">
-        <v>0.002946562482975423</v>
+        <v>0.005227126530371606</v>
       </c>
     </row>
     <row r="55">
@@ -3735,31 +3735,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>780</v>
+        <v>1625</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3329991708742455</v>
+        <v>0.5072603775188327</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6892067099688575</v>
+        <v>1.046622204012237</v>
       </c>
       <c r="F55" t="n">
-        <v>780</v>
+        <v>1625</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09120535780675709</v>
+        <v>0.1780757391825318</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3833816247060895</v>
+        <v>0.6022758004255593</v>
       </c>
       <c r="I55" t="n">
-        <v>0.06233998702373356</v>
+        <v>0.1235184032702819</v>
       </c>
       <c r="J55" t="n">
-        <v>0.145969117176719</v>
+        <v>0.129762937896885</v>
       </c>
       <c r="K55" t="n">
-        <v>0.00184149737469852</v>
+        <v>0.003467095666565001</v>
       </c>
     </row>
     <row r="56">
@@ -3770,31 +3770,31 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>752</v>
+        <v>1442</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6572130820713937</v>
+        <v>0.9141801816876978</v>
       </c>
       <c r="E56" t="n">
-        <v>1.023920400999486</v>
+        <v>1.245293381041847</v>
       </c>
       <c r="F56" t="n">
-        <v>752</v>
+        <v>1442</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04170290636830032</v>
+        <v>0.05621407774742693</v>
       </c>
       <c r="H56" t="n">
-        <v>0.6998984906822443</v>
+        <v>0.9872191661270335</v>
       </c>
       <c r="I56" t="n">
-        <v>0.02956736402120441</v>
+        <v>0.03770368173718452</v>
       </c>
       <c r="J56" t="n">
-        <v>0.2469005456659943</v>
+        <v>0.1531274769222364</v>
       </c>
       <c r="K56" t="n">
-        <v>0.001534726587124169</v>
+        <v>0.002836652914993465</v>
       </c>
     </row>
     <row r="57">
@@ -3805,11 +3805,11 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>21929</v>
+        <v>21848</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>25.07572242734022</v>
+        <v>25.58779821335338</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -3830,31 +3830,31 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1512</v>
+        <v>1625</v>
       </c>
       <c r="D58" t="n">
-        <v>0.006417552474886179</v>
+        <v>0.007162769790738821</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2074611899442971</v>
+        <v>0.2156845870194957</v>
       </c>
       <c r="F58" t="n">
-        <v>1512</v>
+        <v>1625</v>
       </c>
       <c r="G58" t="n">
-        <v>0.06624988140538335</v>
+        <v>0.07149876852054149</v>
       </c>
       <c r="H58" t="n">
-        <v>0.06574715964961797</v>
+        <v>0.07043304457329214</v>
       </c>
       <c r="I58" t="n">
-        <v>0.04050887108314782</v>
+        <v>0.03728825587313622</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0248306137509644</v>
+        <v>0.0253875725902617</v>
       </c>
       <c r="K58" t="n">
-        <v>0.00265038781799376</v>
+        <v>0.002847695723176003</v>
       </c>
     </row>
     <row r="59">
@@ -3865,31 +3865,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1134</v>
+        <v>1703</v>
       </c>
       <c r="D59" t="n">
-        <v>0.466643851948902</v>
+        <v>0.6677556033246219</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7496598170837387</v>
+        <v>1.000980932964012</v>
       </c>
       <c r="F59" t="n">
-        <v>1134</v>
+        <v>1703</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05413363536354154</v>
+        <v>0.07085323729552329</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5282283761771396</v>
+        <v>0.7565898519242182</v>
       </c>
       <c r="I59" t="n">
-        <v>0.04354747722391039</v>
+        <v>0.06125858682207763</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1154117862461135</v>
+        <v>0.0995154941920191</v>
       </c>
       <c r="K59" t="n">
-        <v>0.002193022170104086</v>
+        <v>0.003242047852836549</v>
       </c>
     </row>
     <row r="60">
@@ -3900,31 +3900,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>680</v>
+        <v>994</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2920149069977924</v>
+        <v>0.4048018058529124</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5102987119462341</v>
+        <v>0.6577785960398614</v>
       </c>
       <c r="F60" t="n">
-        <v>680</v>
+        <v>994</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03968963189981878</v>
+        <v>0.05203397118020803</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3307362606283277</v>
+        <v>0.4593402178725228</v>
       </c>
       <c r="I60" t="n">
-        <v>0.02626800420694053</v>
+        <v>0.03669510094914585</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1085709739709273</v>
+        <v>0.1020759613020346</v>
       </c>
       <c r="K60" t="n">
-        <v>0.001326186233200133</v>
+        <v>0.001855676295235753</v>
       </c>
     </row>
     <row r="61">
@@ -3935,31 +3935,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2373</v>
+        <v>2584</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01241362874861807</v>
+        <v>0.01205071748699993</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5463987389812246</v>
+        <v>0.5655869439942762</v>
       </c>
       <c r="F61" t="n">
-        <v>2373</v>
+        <v>2584</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1835970632964745</v>
+        <v>0.2001474348362535</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1168619816889986</v>
+        <v>0.1254446170059964</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1976063036127016</v>
+        <v>0.1914304675301537</v>
       </c>
       <c r="J61" t="n">
-        <v>0.03106498019769788</v>
+        <v>0.02952506858855486</v>
       </c>
       <c r="K61" t="n">
-        <v>0.00485568621661514</v>
+        <v>0.005021051620133221</v>
       </c>
     </row>
     <row r="62">
@@ -3970,31 +3970,31 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1136</v>
+        <v>2020</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4707156660733745</v>
+        <v>0.7910506527405232</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9555764829274267</v>
+        <v>1.553029324975796</v>
       </c>
       <c r="F62" t="n">
-        <v>1136</v>
+        <v>2020</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1054313769564033</v>
+        <v>0.1849979325197637</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5401064634788781</v>
+        <v>0.9194609285332263</v>
       </c>
       <c r="I62" t="n">
-        <v>0.09601577417925</v>
+        <v>0.2229838651837781</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2049009334295988</v>
+        <v>0.209104202920571</v>
       </c>
       <c r="K62" t="n">
-        <v>0.002691672299988568</v>
+        <v>0.004390568239614367</v>
       </c>
     </row>
     <row r="63">
@@ -4005,31 +4005,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>680</v>
+        <v>1218</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2938403387088329</v>
+        <v>0.5947319687111303</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6081207330571488</v>
+        <v>1.093893264071085</v>
       </c>
       <c r="F63" t="n">
-        <v>680</v>
+        <v>1218</v>
       </c>
       <c r="G63" t="n">
-        <v>0.07831883581820875</v>
+        <v>0.1373508891556412</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3367432559607551</v>
+        <v>0.6743693149182945</v>
       </c>
       <c r="I63" t="n">
-        <v>0.04557279078289866</v>
+        <v>0.1196075134212151</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1420742766931653</v>
+        <v>0.1526604131795466</v>
       </c>
       <c r="K63" t="n">
-        <v>0.001555126276798546</v>
+        <v>0.002649727161042392</v>
       </c>
     </row>
     <row r="64">
@@ -4040,31 +4040,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>680</v>
+        <v>994</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5592870115069672</v>
+        <v>0.9387002942385152</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8790396510157734</v>
+        <v>1.341768194921315</v>
       </c>
       <c r="F64" t="n">
-        <v>680</v>
+        <v>994</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04029539390467107</v>
+        <v>0.05386925337370485</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5981679003452882</v>
+        <v>0.9956096914829686</v>
       </c>
       <c r="I64" t="n">
-        <v>0.02678887418005615</v>
+        <v>0.03831551549956203</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2085438289213926</v>
+        <v>0.2460217130137607</v>
       </c>
       <c r="K64" t="n">
-        <v>0.00137656182050705</v>
+        <v>0.002098751254379749</v>
       </c>
     </row>
     <row r="65">
@@ -4075,11 +4075,11 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>21587</v>
+        <v>20869</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>25.0621335391188</v>
+        <v>25.30939902679529</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
@@ -4100,31 +4100,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2000</v>
+        <v>1484</v>
       </c>
       <c r="D66" t="n">
-        <v>0.009246236877515912</v>
+        <v>0.006551321595907211</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2632267859298736</v>
+        <v>0.2076816640328616</v>
       </c>
       <c r="F66" t="n">
-        <v>2000</v>
+        <v>1484</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08922894368879497</v>
+        <v>0.06708469102159142</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0861562805948779</v>
+        <v>0.06522894406225532</v>
       </c>
       <c r="I66" t="n">
-        <v>0.04515104333404452</v>
+        <v>0.03882198454812169</v>
       </c>
       <c r="J66" t="n">
-        <v>0.029393540462479</v>
+        <v>0.02636201411951333</v>
       </c>
       <c r="K66" t="n">
-        <v>0.00352467701304704</v>
+        <v>0.002599364845082164</v>
       </c>
     </row>
     <row r="67">
@@ -4135,31 +4135,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2063</v>
+        <v>1077</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8467877148650587</v>
+        <v>0.4455481704790145</v>
       </c>
       <c r="E67" t="n">
-        <v>1.253237041062675</v>
+        <v>0.7171598999993876</v>
       </c>
       <c r="F67" t="n">
-        <v>2063</v>
+        <v>1077</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08485097077209502</v>
+        <v>0.05153646983671933</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9570722925709561</v>
+        <v>0.5043640005169436</v>
       </c>
       <c r="I67" t="n">
-        <v>0.06967307266313583</v>
+        <v>0.04023423045873642</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1265370957553387</v>
+        <v>0.11289990961086</v>
       </c>
       <c r="K67" t="n">
-        <v>0.003974537714384496</v>
+        <v>0.002084987005218863</v>
       </c>
     </row>
     <row r="68">
@@ -4170,31 +4170,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1232</v>
+        <v>622</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4141133964294568</v>
+        <v>0.271902310079895</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7175885749747977</v>
+        <v>0.4822809810284525</v>
       </c>
       <c r="F68" t="n">
-        <v>1232</v>
+        <v>622</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0624465859727934</v>
+        <v>0.03561410144902766</v>
       </c>
       <c r="H68" t="n">
-        <v>0.4809247037628666</v>
+        <v>0.3072371064918116</v>
       </c>
       <c r="I68" t="n">
-        <v>0.03879457316361368</v>
+        <v>0.02307581203058362</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1264118208782747</v>
+        <v>0.1116380991879851</v>
       </c>
       <c r="K68" t="n">
-        <v>0.002388303284533322</v>
+        <v>0.001218101941049099</v>
       </c>
     </row>
     <row r="69">
@@ -4205,31 +4205,31 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3831</v>
+        <v>2294</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01679897564463317</v>
+        <v>0.01135577529203147</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9253352959640324</v>
+        <v>0.5504121159901842</v>
       </c>
       <c r="F69" t="n">
-        <v>3831</v>
+        <v>2294</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3022720359731466</v>
+        <v>0.1845227165613323</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1842632270418108</v>
+        <v>0.1141712218523026</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3617056008661166</v>
+        <v>0.2037598503520712</v>
       </c>
       <c r="J69" t="n">
-        <v>0.04901277262251824</v>
+        <v>0.03054980142042041</v>
       </c>
       <c r="K69" t="n">
-        <v>0.007825454697012901</v>
+        <v>0.004679890116676688</v>
       </c>
     </row>
     <row r="70">
@@ -4240,31 +4240,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2393</v>
+        <v>1108</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7584924944676459</v>
+        <v>0.4595468488987535</v>
       </c>
       <c r="E70" t="n">
-        <v>1.638238316052593</v>
+        <v>0.9212795490166172</v>
       </c>
       <c r="F70" t="n">
-        <v>2393</v>
+        <v>1108</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2218667139532045</v>
+        <v>0.1032668829429895</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9080723272636533</v>
+        <v>0.5266485377214849</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2662448260234669</v>
+        <v>0.08937393187079579</v>
       </c>
       <c r="J70" t="n">
-        <v>0.223099455004558</v>
+        <v>0.1930732029723004</v>
       </c>
       <c r="K70" t="n">
-        <v>0.005370423546992242</v>
+        <v>0.002443749457597733</v>
       </c>
     </row>
     <row r="71">
@@ -4275,31 +4275,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1482</v>
+        <v>636</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4533573217922822</v>
+        <v>0.2772924188757315</v>
       </c>
       <c r="E71" t="n">
-        <v>1.023128479951993</v>
+        <v>0.5829175079707056</v>
       </c>
       <c r="F71" t="n">
-        <v>1482</v>
+        <v>636</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1671943806577474</v>
+        <v>0.07297699409537017</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5471163807669654</v>
+        <v>0.3175769969820976</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1394611910218373</v>
+        <v>0.04797902831342071</v>
       </c>
       <c r="J71" t="n">
-        <v>0.157583441818133</v>
+        <v>0.1392566316062585</v>
       </c>
       <c r="K71" t="n">
-        <v>0.003318951698020101</v>
+        <v>0.001412187004461884</v>
       </c>
     </row>
     <row r="72">
@@ -4310,31 +4310,31 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1232</v>
+        <v>622</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7559360447339714</v>
+        <v>0.4094549613073468</v>
       </c>
       <c r="E72" t="n">
-        <v>1.165733386995271</v>
+        <v>0.7048731410177425</v>
       </c>
       <c r="F72" t="n">
-        <v>1232</v>
+        <v>622</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06359160307329148</v>
+        <v>0.03594582981895655</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8227326897904277</v>
+        <v>0.4444557593669742</v>
       </c>
       <c r="I72" t="n">
-        <v>0.03959080681670457</v>
+        <v>0.02343335503246635</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2305384718347341</v>
+        <v>0.1962151875486597</v>
       </c>
       <c r="K72" t="n">
-        <v>0.002444731071591377</v>
+        <v>0.00122838479001075</v>
       </c>
     </row>
     <row r="73">
@@ -4345,11 +4345,11 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>22521</v>
+        <v>21844</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>25.61654001206625</v>
+        <v>25.48875334206969</v>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -4370,31 +4370,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1657</v>
+        <v>1551</v>
       </c>
       <c r="D74" t="n">
-        <v>0.006768611958250403</v>
+        <v>0.006732123787514865</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2192084200214595</v>
+        <v>0.2053514010040089</v>
       </c>
       <c r="F74" t="n">
-        <v>1657</v>
+        <v>1551</v>
       </c>
       <c r="G74" t="n">
-        <v>0.06922901922371238</v>
+        <v>0.06637843907810748</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07076961104758084</v>
+        <v>0.06721529609058052</v>
       </c>
       <c r="I74" t="n">
-        <v>0.03985506191384047</v>
+        <v>0.03666182910092175</v>
       </c>
       <c r="J74" t="n">
-        <v>0.02824493346270174</v>
+        <v>0.02455392084084451</v>
       </c>
       <c r="K74" t="n">
-        <v>0.002951601054519415</v>
+        <v>0.002682543126866221</v>
       </c>
     </row>
     <row r="75">
@@ -4405,31 +4405,31 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1262</v>
+        <v>1226</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5131854322971776</v>
+        <v>0.4800082026049495</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7852975400164723</v>
+        <v>0.7352244280045852</v>
       </c>
       <c r="F75" t="n">
-        <v>1262</v>
+        <v>1226</v>
       </c>
       <c r="G75" t="n">
-        <v>0.05142977519426495</v>
+        <v>0.05195495358202606</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5812037325231358</v>
+        <v>0.5450404369039461</v>
       </c>
       <c r="I75" t="n">
-        <v>0.04320027399808168</v>
+        <v>0.04313687141984701</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1002358008408919</v>
+        <v>0.08596622408367693</v>
       </c>
       <c r="K75" t="n">
-        <v>0.002405067556537688</v>
+        <v>0.002296198159456253</v>
       </c>
     </row>
     <row r="76">
@@ -4440,31 +4440,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>772</v>
+        <v>719</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3288837732980028</v>
+        <v>0.3028743184404448</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5448229470057413</v>
+        <v>0.4980875760084018</v>
       </c>
       <c r="F76" t="n">
-        <v>772</v>
+        <v>719</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03798732347786427</v>
+        <v>0.03757563745602965</v>
       </c>
       <c r="H76" t="n">
-        <v>0.3721040799282491</v>
+        <v>0.343266787356697</v>
       </c>
       <c r="I76" t="n">
-        <v>0.02632984227966517</v>
+        <v>0.02543899789452553</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1027405250351876</v>
+        <v>0.08635652961675078</v>
       </c>
       <c r="K76" t="n">
-        <v>0.001477874116972089</v>
+        <v>0.001370929880067706</v>
       </c>
     </row>
     <row r="77">
@@ -4475,31 +4475,31 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2777</v>
+        <v>2619</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0139880987117067</v>
+        <v>0.01241648301947862</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6703237199690193</v>
+        <v>0.6400780219119042</v>
       </c>
       <c r="F77" t="n">
-        <v>2777</v>
+        <v>2619</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2151909410022199</v>
+        <v>0.2055321800289676</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1346123071853071</v>
+        <v>0.1269938815385103</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2622892543440685</v>
+        <v>0.2490633379202336</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03790758119430393</v>
+        <v>0.03893623233307153</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0057292286073789</v>
+        <v>0.005203123902902007</v>
       </c>
     </row>
     <row r="78">
@@ -4510,31 +4510,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1264</v>
+        <v>1253</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5138315202202648</v>
+        <v>0.4915995538467541</v>
       </c>
       <c r="E78" t="n">
-        <v>1.08818445308134</v>
+        <v>0.9586082050809637</v>
       </c>
       <c r="F78" t="n">
-        <v>1264</v>
+        <v>1253</v>
       </c>
       <c r="G78" t="n">
-        <v>0.222647424438037</v>
+        <v>0.1169269051169977</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5905880819773301</v>
+        <v>0.5663424652302638</v>
       </c>
       <c r="I78" t="n">
-        <v>0.09791122889146209</v>
+        <v>0.1105639165034518</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1670776455430314</v>
+        <v>0.1544146038359031</v>
       </c>
       <c r="K78" t="n">
-        <v>0.002861857181414962</v>
+        <v>0.003023974248208106</v>
       </c>
     </row>
     <row r="79">
@@ -4545,31 +4545,31 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>772</v>
+        <v>729</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3305789057631046</v>
+        <v>0.3083119168877602</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6514836930437014</v>
+        <v>0.6150307339848951</v>
       </c>
       <c r="F79" t="n">
-        <v>772</v>
+        <v>729</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08931344654411077</v>
+        <v>0.08354336663614959</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3786455924855545</v>
+        <v>0.3543941145762801</v>
       </c>
       <c r="I79" t="n">
-        <v>0.04899666714482009</v>
+        <v>0.05556347768288106</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1283715243916959</v>
+        <v>0.1156343289185315</v>
       </c>
       <c r="K79" t="n">
-        <v>0.001771961571648717</v>
+        <v>0.001637984183616936</v>
       </c>
     </row>
     <row r="80">
@@ -4580,31 +4580,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>772</v>
+        <v>719</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5449147730832919</v>
+        <v>0.4952601821860299</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8414058389607817</v>
+        <v>0.7516666420269758</v>
       </c>
       <c r="F80" t="n">
-        <v>772</v>
+        <v>719</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03895087505225092</v>
+        <v>0.03798732615541667</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5884661253076047</v>
+        <v>0.5356951125431806</v>
       </c>
       <c r="I80" t="n">
-        <v>0.02702034171670675</v>
+        <v>0.02602667885366827</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1807679026387632</v>
+        <v>0.1463510398752987</v>
       </c>
       <c r="K80" t="n">
-        <v>0.001540286117233336</v>
+        <v>0.001454371842555702</v>
       </c>
     </row>
     <row r="81">
@@ -4615,11 +4615,11 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>20965</v>
+        <v>21069</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>25.2095581399044</v>
+        <v>25.44877722207457</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -4640,31 +4640,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1909</v>
+        <v>1470</v>
       </c>
       <c r="D82" t="n">
-        <v>0.007807114627212286</v>
+        <v>0.006406903266906738</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2303712440188974</v>
+        <v>0.2053280199179426</v>
       </c>
       <c r="F82" t="n">
-        <v>1909</v>
+        <v>1470</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07504870148841292</v>
+        <v>0.06721409689635038</v>
       </c>
       <c r="H82" t="n">
-        <v>0.08084741036873311</v>
+        <v>0.06416048319078982</v>
       </c>
       <c r="I82" t="n">
-        <v>0.03839065611828119</v>
+        <v>0.03767490515019745</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02335555455647409</v>
+        <v>0.02615551580674946</v>
       </c>
       <c r="K82" t="n">
-        <v>0.003385570365935564</v>
+        <v>0.002600046806037426</v>
       </c>
     </row>
     <row r="83">
@@ -4675,31 +4675,31 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2387</v>
+        <v>1378</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8984155581565574</v>
+        <v>0.6464721020311117</v>
       </c>
       <c r="E83" t="n">
-        <v>1.330131582915783</v>
+        <v>0.9403567410772666</v>
       </c>
       <c r="F83" t="n">
-        <v>2387</v>
+        <v>1378</v>
       </c>
       <c r="G83" t="n">
-        <v>0.09082750964444131</v>
+        <v>0.05919223616365343</v>
       </c>
       <c r="H83" t="n">
-        <v>1.021759826573543</v>
+        <v>0.7189575232332572</v>
       </c>
       <c r="I83" t="n">
-        <v>0.08786163327749819</v>
+        <v>0.04797142720781267</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1123328560497612</v>
+        <v>0.1038719055941328</v>
       </c>
       <c r="K83" t="n">
-        <v>0.004524242598563433</v>
+        <v>0.002613044693134725</v>
       </c>
     </row>
     <row r="84">
@@ -4710,31 +4710,31 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1419</v>
+        <v>835</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5361272301524878</v>
+        <v>0.3364074978744611</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8427397019695491</v>
+        <v>0.5727980100782588</v>
       </c>
       <c r="F84" t="n">
-        <v>1419</v>
+        <v>835</v>
       </c>
       <c r="G84" t="n">
-        <v>0.06621528521645814</v>
+        <v>0.04466806550044566</v>
       </c>
       <c r="H84" t="n">
-        <v>0.610790443373844</v>
+        <v>0.3829339101212099</v>
       </c>
       <c r="I84" t="n">
-        <v>0.04285272979177535</v>
+        <v>0.03104724327567965</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1126415195176378</v>
+        <v>0.1075771009782329</v>
       </c>
       <c r="K84" t="n">
-        <v>0.002670932095497847</v>
+        <v>0.001605188939720392</v>
       </c>
     </row>
     <row r="85">
@@ -4745,31 +4745,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3644</v>
+        <v>2068</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01580401603132486</v>
+        <v>0.009796842117793858</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8121957459952682</v>
+        <v>0.4494874050142244</v>
       </c>
       <c r="F85" t="n">
-        <v>3644</v>
+        <v>2068</v>
       </c>
       <c r="G85" t="n">
-        <v>0.2836451575858518</v>
+        <v>0.1617987009231001</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1740111802937463</v>
+        <v>0.1003192013595253</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2914113409351557</v>
+        <v>0.1487885829992592</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03656972432509065</v>
+        <v>0.02332402358297259</v>
       </c>
       <c r="K85" t="n">
-        <v>0.007326598977670074</v>
+        <v>0.004108262597583234</v>
       </c>
     </row>
     <row r="86">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2810</v>
+        <v>1488</v>
       </c>
       <c r="D86" t="n">
-        <v>1.079523532651365</v>
+        <v>0.5445307231275365</v>
       </c>
       <c r="E86" t="n">
-        <v>2.077598031959496</v>
+        <v>1.130888639949262</v>
       </c>
       <c r="F86" t="n">
-        <v>2810</v>
+        <v>1488</v>
       </c>
       <c r="G86" t="n">
-        <v>0.2586654307087883</v>
+        <v>0.1406036448897794</v>
       </c>
       <c r="H86" t="n">
-        <v>1.26107917749323</v>
+        <v>0.6370628376025707</v>
       </c>
       <c r="I86" t="n">
-        <v>0.318849160685204</v>
+        <v>0.1509656289126724</v>
       </c>
       <c r="J86" t="n">
-        <v>0.2162059517577291</v>
+        <v>0.1901309062959626</v>
       </c>
       <c r="K86" t="n">
-        <v>0.006334203178994358</v>
+        <v>0.003340283292345703</v>
       </c>
     </row>
     <row r="87">
@@ -4815,31 +4815,31 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1716</v>
+        <v>907</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7708041092846543</v>
+        <v>0.3572221385547891</v>
       </c>
       <c r="E87" t="n">
-        <v>1.403708506026305</v>
+        <v>0.7406426039524376</v>
       </c>
       <c r="F87" t="n">
-        <v>1716</v>
+        <v>907</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1911244770744815</v>
+        <v>0.1027824762277305</v>
       </c>
       <c r="H87" t="n">
-        <v>0.8811327375005931</v>
+        <v>0.415672029950656</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1604395798640326</v>
+        <v>0.0772621346404776</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1572840054286644</v>
+        <v>0.1376017882721499</v>
       </c>
       <c r="K87" t="n">
-        <v>0.003720354638062418</v>
+        <v>0.001967018004506826</v>
       </c>
     </row>
     <row r="88">
@@ -4850,31 +4850,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1419</v>
+        <v>835</v>
       </c>
       <c r="D88" t="n">
-        <v>1.480296121328138</v>
+        <v>0.6771501459879801</v>
       </c>
       <c r="E88" t="n">
-        <v>1.928057251032442</v>
+        <v>1.04177495802287</v>
       </c>
       <c r="F88" t="n">
-        <v>1419</v>
+        <v>835</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06902479124255478</v>
+        <v>0.04552124440670013</v>
       </c>
       <c r="H88" t="n">
-        <v>1.558165238355286</v>
+        <v>0.7244177125394344</v>
       </c>
       <c r="I88" t="n">
-        <v>0.04499044257681817</v>
+        <v>0.03208973864093423</v>
       </c>
       <c r="J88" t="n">
-        <v>0.244778829626739</v>
+        <v>0.2331318416399881</v>
       </c>
       <c r="K88" t="n">
-        <v>0.002935759024694562</v>
+        <v>0.001697640051133931</v>
       </c>
     </row>
     <row r="89">
@@ -4885,11 +4885,11 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>21628</v>
+        <v>20123</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>25.04876994201913</v>
+        <v>25.00619462912437</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
@@ -4910,31 +4910,31 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1862</v>
+        <v>1630</v>
       </c>
       <c r="D90" t="n">
-        <v>0.007609684951603413</v>
+        <v>0.006907151895575225</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2307184500386938</v>
+        <v>0.2122676169965416</v>
       </c>
       <c r="F90" t="n">
-        <v>1862</v>
+        <v>1630</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07556100632064044</v>
+        <v>0.06924081780016422</v>
       </c>
       <c r="H90" t="n">
-        <v>0.07882712525315583</v>
+        <v>0.06938194122631103</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0376259641489014</v>
+        <v>0.03653156897053123</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02612559299450368</v>
+        <v>0.02596297662239522</v>
       </c>
       <c r="K90" t="n">
-        <v>0.003365805256180465</v>
+        <v>0.002902534091845155</v>
       </c>
     </row>
     <row r="91">
@@ -4945,31 +4945,31 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2042</v>
+        <v>1359</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7491961788618937</v>
+        <v>0.5147185381501913</v>
       </c>
       <c r="E91" t="n">
-        <v>1.126367309014313</v>
+        <v>0.8147860559402034</v>
       </c>
       <c r="F91" t="n">
-        <v>2042</v>
+        <v>1359</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07917701976839453</v>
+        <v>0.05866126285400242</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8543408395489678</v>
+        <v>0.5852549944538623</v>
       </c>
       <c r="I91" t="n">
-        <v>0.06747207720763981</v>
+        <v>0.04765286296606064</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1104647073661909</v>
+        <v>0.1130493832752109</v>
       </c>
       <c r="K91" t="n">
-        <v>0.003940711030736566</v>
+        <v>0.002586349961347878</v>
       </c>
     </row>
     <row r="92">
@@ -4980,31 +4980,31 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1174</v>
+        <v>823</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4403577693738043</v>
+        <v>0.336156677803956</v>
       </c>
       <c r="E92" t="n">
-        <v>0.712622944964096</v>
+        <v>0.5746558859245852</v>
       </c>
       <c r="F92" t="n">
-        <v>1174</v>
+        <v>823</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05607126501854509</v>
+        <v>0.043481515487656</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5023684790357947</v>
+        <v>0.3813841078663245</v>
       </c>
       <c r="I92" t="n">
-        <v>0.03418263921048492</v>
+        <v>0.02878643153235316</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1114512331550941</v>
+        <v>0.1147513317409903</v>
       </c>
       <c r="K92" t="n">
-        <v>0.002243805327452719</v>
+        <v>0.001540424302220345</v>
       </c>
     </row>
     <row r="93">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3263</v>
+        <v>2870</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01422126521356404</v>
+        <v>0.01357969641685486</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7228592910105363</v>
+        <v>0.6644327660324052</v>
       </c>
       <c r="F93" t="n">
-        <v>3263</v>
+        <v>2870</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2554498830577359</v>
+        <v>0.2237326495815068</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1566423596814275</v>
+        <v>0.1384950672509149</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2524377952795476</v>
+        <v>0.2468767305836082</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03409360465593636</v>
+        <v>0.03404766705352813</v>
       </c>
       <c r="K93" t="n">
-        <v>0.006784130935557187</v>
+        <v>0.005679644760675728</v>
       </c>
     </row>
     <row r="94">
@@ -5050,31 +5050,31 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2733</v>
+        <v>1462</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9873603284358978</v>
+        <v>0.5549046586966142</v>
       </c>
       <c r="E94" t="n">
-        <v>1.985224170959555</v>
+        <v>1.10707580705639</v>
       </c>
       <c r="F94" t="n">
-        <v>2733</v>
+        <v>1462</v>
       </c>
       <c r="G94" t="n">
-        <v>0.2526552447816357</v>
+        <v>0.1336123690707609</v>
       </c>
       <c r="H94" t="n">
-        <v>1.160272601060569</v>
+        <v>0.6427489509806037</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3223331818589941</v>
+        <v>0.1268980200402439</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2282123480690643</v>
+        <v>0.1920076063834131</v>
       </c>
       <c r="K94" t="n">
-        <v>0.00611036061309278</v>
+        <v>0.003217733930796385</v>
       </c>
     </row>
     <row r="95">
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1634</v>
+        <v>912</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6181791137205437</v>
+        <v>0.3698344558943063</v>
       </c>
       <c r="E95" t="n">
-        <v>1.256341370986775</v>
+        <v>0.7501629039179534</v>
       </c>
       <c r="F95" t="n">
-        <v>1634</v>
+        <v>912</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1851105522364378</v>
+        <v>0.1030679094837978</v>
       </c>
       <c r="H95" t="n">
-        <v>0.7239540468435735</v>
+        <v>0.4271276977378875</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1712564915651456</v>
+        <v>0.06781477516051382</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1629748983541504</v>
+        <v>0.1447552369209006</v>
       </c>
       <c r="K95" t="n">
-        <v>0.003571517998352647</v>
+        <v>0.0020444649271667</v>
       </c>
     </row>
     <row r="96">
@@ -5120,31 +5120,31 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1174</v>
+        <v>823</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9611025996273383</v>
+        <v>0.6090793955372646</v>
       </c>
       <c r="E96" t="n">
-        <v>1.319838783005252</v>
+        <v>0.96476821298711</v>
       </c>
       <c r="F96" t="n">
-        <v>1174</v>
+        <v>823</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05735716759227216</v>
+        <v>0.0443236738210544</v>
       </c>
       <c r="H96" t="n">
-        <v>1.024183744681068</v>
+        <v>0.6545194806531072</v>
       </c>
       <c r="I96" t="n">
-        <v>0.03506762639153749</v>
+        <v>0.02962110925000161</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1939612330170348</v>
+        <v>0.2299376695882529</v>
       </c>
       <c r="K96" t="n">
-        <v>0.002336361794732511</v>
+        <v>0.00163159251678735</v>
       </c>
     </row>
     <row r="97">
@@ -5155,11 +5155,11 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>21342</v>
+        <v>21575</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>25.22842748998664</v>
+        <v>25.1534202148905</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
@@ -5180,31 +5180,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1086</v>
+        <v>1225</v>
       </c>
       <c r="D98" t="n">
-        <v>0.005114004365168512</v>
+        <v>0.00547510664910078</v>
       </c>
       <c r="E98" t="n">
-        <v>0.155531111988239</v>
+        <v>0.1830075740581378</v>
       </c>
       <c r="F98" t="n">
-        <v>1086</v>
+        <v>1225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.04900101362727582</v>
+        <v>0.05989540251903236</v>
       </c>
       <c r="H98" t="n">
-        <v>0.04840734251774848</v>
+        <v>0.05548790690954775</v>
       </c>
       <c r="I98" t="n">
-        <v>0.02898013859521598</v>
+        <v>0.0347415873548016</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02173625654540956</v>
+        <v>0.02438827615696937</v>
       </c>
       <c r="K98" t="n">
-        <v>0.001976782456040382</v>
+        <v>0.002206271165050566</v>
       </c>
     </row>
     <row r="99">
@@ -5215,31 +5215,31 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>704</v>
+        <v>943</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3423320605652407</v>
+        <v>0.3818174982443452</v>
       </c>
       <c r="E99" t="n">
-        <v>0.542494774912484</v>
+        <v>0.6191303239902481</v>
       </c>
       <c r="F99" t="n">
-        <v>704</v>
+        <v>943</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03437831613700837</v>
+        <v>0.04742735100444406</v>
       </c>
       <c r="H99" t="n">
-        <v>0.381149307009764</v>
+        <v>0.4316719543421641</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0270860797027126</v>
+        <v>0.03782411047723144</v>
       </c>
       <c r="J99" t="n">
-        <v>0.09461198351345956</v>
+        <v>0.09508317487780005</v>
       </c>
       <c r="K99" t="n">
-        <v>0.001400936977006495</v>
+        <v>0.001801179954782128</v>
       </c>
     </row>
     <row r="100">
@@ -5250,31 +5250,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>421</v>
+        <v>565</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2209362828871235</v>
+        <v>0.2504299310967326</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3860283950343728</v>
+        <v>0.4478120069252327</v>
       </c>
       <c r="F100" t="n">
-        <v>421</v>
+        <v>565</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02561201434582472</v>
+        <v>0.03602600435260683</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2452930064173415</v>
+        <v>0.2828110746340826</v>
       </c>
       <c r="I100" t="n">
-        <v>0.01706999947782606</v>
+        <v>0.02321815292816609</v>
       </c>
       <c r="J100" t="n">
-        <v>0.09489087108522654</v>
+        <v>0.101289656246081</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0008251372491940856</v>
+        <v>0.001100983354263008</v>
       </c>
     </row>
     <row r="101">
@@ -5285,31 +5285,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1530</v>
+        <v>1695</v>
       </c>
       <c r="D101" t="n">
-        <v>0.007352888584136963</v>
+        <v>0.008290915633551776</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3239588679280132</v>
+        <v>0.3782553179189563</v>
       </c>
       <c r="F101" t="n">
-        <v>1530</v>
+        <v>1695</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1184699642471969</v>
+        <v>0.1334711934905499</v>
       </c>
       <c r="H101" t="n">
-        <v>0.07428514107596129</v>
+        <v>0.08266571571584791</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1010709746042266</v>
+        <v>0.1239538927329704</v>
       </c>
       <c r="J101" t="n">
-        <v>0.01896422763820738</v>
+        <v>0.02547274332027882</v>
       </c>
       <c r="K101" t="n">
-        <v>0.003155296319164336</v>
+        <v>0.003561389748938382</v>
       </c>
     </row>
     <row r="102">
@@ -5320,31 +5320,31 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>711</v>
+        <v>968</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3451389928814024</v>
+        <v>0.512717391946353</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6801255280151963</v>
+        <v>0.9329616099130362</v>
       </c>
       <c r="F102" t="n">
-        <v>711</v>
+        <v>968</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06810530042275786</v>
+        <v>0.09027185291051865</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3894318585516885</v>
+        <v>0.5702609189320356</v>
       </c>
       <c r="I102" t="n">
-        <v>0.06160703883506358</v>
+        <v>0.07858998491428792</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1553285302361473</v>
+        <v>0.1857965496601537</v>
       </c>
       <c r="K102" t="n">
-        <v>0.001618568203411996</v>
+        <v>0.002351067261770368</v>
       </c>
     </row>
     <row r="103">
@@ -5355,31 +5355,31 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>427</v>
+        <v>584</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2253525874111801</v>
+        <v>0.2640266006346792</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4596287229796872</v>
+        <v>0.5519956509815529</v>
       </c>
       <c r="F103" t="n">
-        <v>427</v>
+        <v>584</v>
       </c>
       <c r="G103" t="n">
-        <v>0.04994384234305471</v>
+        <v>0.06790912232827395</v>
       </c>
       <c r="H103" t="n">
-        <v>0.2530654579168186</v>
+        <v>0.3007831884315237</v>
       </c>
       <c r="I103" t="n">
-        <v>0.03240326070226729</v>
+        <v>0.04341286153066903</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1207712839823216</v>
+        <v>0.1351579781621695</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0009918413124978542</v>
+        <v>0.001317667774856091</v>
       </c>
     </row>
     <row r="104">
@@ -5390,31 +5390,31 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>421</v>
+        <v>565</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3492215378209949</v>
+        <v>0.4558223705971614</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6061182180419564</v>
+        <v>0.764356923988089</v>
       </c>
       <c r="F104" t="n">
-        <v>421</v>
+        <v>565</v>
       </c>
       <c r="G104" t="n">
-        <v>0.026288524386473</v>
+        <v>0.03666800749488175</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3735948711400852</v>
+        <v>0.4883304052054882</v>
       </c>
       <c r="I104" t="n">
-        <v>0.01730001054238528</v>
+        <v>0.0237692283699289</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1856670551933348</v>
+        <v>0.2110722488723695</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0008542515570297837</v>
+        <v>0.001172728720121086</v>
       </c>
     </row>
     <row r="105">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>19868</v>
+        <v>18278</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="n">
-        <v>25.65396355499979</v>
+        <v>25.68544725596439</v>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
@@ -5450,31 +5450,31 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="D106" t="n">
-        <v>0.007399733061902225</v>
+        <v>0.007709037978202105</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2315176990814507</v>
+        <v>0.2261984350625426</v>
       </c>
       <c r="F106" t="n">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="G106" t="n">
-        <v>0.07611376023851335</v>
+        <v>0.07070508040487766</v>
       </c>
       <c r="H106" t="n">
-        <v>0.07996620750054717</v>
+        <v>0.07889890146907419</v>
       </c>
       <c r="I106" t="n">
-        <v>0.03907189192250371</v>
+        <v>0.03831235540565103</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02415344142355025</v>
+        <v>0.02562263852450997</v>
       </c>
       <c r="K106" t="n">
-        <v>0.003246982931159437</v>
+        <v>0.003294564434327185</v>
       </c>
     </row>
     <row r="107">
@@ -5485,31 +5485,31 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1652</v>
+        <v>1397</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5987170323496684</v>
+        <v>0.5191826730733737</v>
       </c>
       <c r="E107" t="n">
-        <v>1.032297719968483</v>
+        <v>0.8022853899747133</v>
       </c>
       <c r="F107" t="n">
-        <v>1652</v>
+        <v>1397</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06382562033832073</v>
+        <v>0.05369457718916237</v>
       </c>
       <c r="H107" t="n">
-        <v>0.6827534263720736</v>
+        <v>0.5917034845333546</v>
       </c>
       <c r="I107" t="n">
-        <v>0.05249160283710808</v>
+        <v>0.04485637531615794</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2212603987427428</v>
+        <v>0.1015781535534188</v>
       </c>
       <c r="K107" t="n">
-        <v>0.00313103327061981</v>
+        <v>0.002634324715472758</v>
       </c>
     </row>
     <row r="108">
@@ -5520,31 +5520,31 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>968</v>
+        <v>860</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3694050750928</v>
+        <v>0.3271337677724659</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6126189880305901</v>
+        <v>0.5489592970116064</v>
       </c>
       <c r="F108" t="n">
-        <v>968</v>
+        <v>860</v>
       </c>
       <c r="G108" t="n">
-        <v>0.04622226534411311</v>
+        <v>0.03957377921324223</v>
       </c>
       <c r="H108" t="n">
-        <v>0.421048172749579</v>
+        <v>0.3732613390311599</v>
       </c>
       <c r="I108" t="n">
-        <v>0.02924275666009635</v>
+        <v>0.02664852363523096</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1090134546393529</v>
+        <v>0.1031115303048864</v>
       </c>
       <c r="K108" t="n">
-        <v>0.001886322279460728</v>
+        <v>0.00161902152467519</v>
       </c>
     </row>
     <row r="109">
@@ -5555,31 +5555,31 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3421</v>
+        <v>3633</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01533803378697485</v>
+        <v>0.0165863212896511</v>
       </c>
       <c r="E109" t="n">
-        <v>1.081598635995761</v>
+        <v>0.9067405919777229</v>
       </c>
       <c r="F109" t="n">
-        <v>3421</v>
+        <v>3633</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4724518926814198</v>
+        <v>0.286003980319947</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1677599290851504</v>
+        <v>0.1772467602277175</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3694254012079909</v>
+        <v>0.3691193845588714</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04655027796979994</v>
+        <v>0.04711933073122054</v>
       </c>
       <c r="K109" t="n">
-        <v>0.007159636239521205</v>
+        <v>0.00746848713606596</v>
       </c>
     </row>
     <row r="110">
@@ -5590,31 +5590,31 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1790</v>
+        <v>1475</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6472252721432596</v>
+        <v>0.5323168570175767</v>
       </c>
       <c r="E110" t="n">
-        <v>1.434103895095177</v>
+        <v>1.077243135892786</v>
       </c>
       <c r="F110" t="n">
-        <v>1790</v>
+        <v>1475</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1641678771702573</v>
+        <v>0.1392076062038541</v>
       </c>
       <c r="H110" t="n">
-        <v>0.7514000426745042</v>
+        <v>0.6209509352920577</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1815530289895833</v>
+        <v>0.1294590953039005</v>
       </c>
       <c r="J110" t="n">
-        <v>0.3226651715813205</v>
+        <v>0.1757010837318376</v>
       </c>
       <c r="K110" t="n">
-        <v>0.004045025678351521</v>
+        <v>0.003227429813705385</v>
       </c>
     </row>
     <row r="111">
@@ -5625,31 +5625,31 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1037</v>
+        <v>923</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3968056169105694</v>
+        <v>0.3432119970675558</v>
       </c>
       <c r="E111" t="n">
-        <v>0.8361637890338898</v>
+        <v>0.7125275220023468</v>
       </c>
       <c r="F111" t="n">
-        <v>1037</v>
+        <v>923</v>
       </c>
       <c r="G111" t="n">
-        <v>0.11815006705001</v>
+        <v>0.1060370211489499</v>
       </c>
       <c r="H111" t="n">
-        <v>0.4594358577160165</v>
+        <v>0.4001413498772308</v>
       </c>
       <c r="I111" t="n">
-        <v>0.09635903651360422</v>
+        <v>0.06750517652835697</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1540016250219196</v>
+        <v>0.131447613122873</v>
       </c>
       <c r="K111" t="n">
-        <v>0.002323718508705497</v>
+        <v>0.002013848978094757</v>
       </c>
     </row>
     <row r="112">
@@ -5660,31 +5660,31 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>968</v>
+        <v>860</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6203761424403638</v>
+        <v>0.5243915800238028</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9524652380496264</v>
+        <v>0.8086578970542178</v>
       </c>
       <c r="F112" t="n">
-        <v>968</v>
+        <v>860</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04751441697590053</v>
+        <v>0.04031731199938804</v>
       </c>
       <c r="H112" t="n">
-        <v>0.6724482915597036</v>
+        <v>0.5709634870290756</v>
       </c>
       <c r="I112" t="n">
-        <v>0.03003959008492529</v>
+        <v>0.02738127752672881</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1951159032760188</v>
+        <v>0.1633523012278602</v>
       </c>
       <c r="K112" t="n">
-        <v>0.001948114368133247</v>
+        <v>0.001735351397655904</v>
       </c>
     </row>
     <row r="113">
@@ -5695,11 +5695,11 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>20830</v>
+        <v>21071</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="n">
-        <v>25.43919122894295</v>
+        <v>25.63816184096504</v>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -5720,31 +5720,31 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1644</v>
+        <v>1943</v>
       </c>
       <c r="D114" t="n">
-        <v>0.006628760951571167</v>
+        <v>0.008212117245420814</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1837756389286369</v>
+        <v>0.2490399579983205</v>
       </c>
       <c r="F114" t="n">
-        <v>1644</v>
+        <v>1943</v>
       </c>
       <c r="G114" t="n">
-        <v>0.05182677204720676</v>
+        <v>0.08055568765848875</v>
       </c>
       <c r="H114" t="n">
-        <v>0.06929306616075337</v>
+        <v>0.08477379858959466</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0301080453209579</v>
+        <v>0.04223401984199882</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02170709276106209</v>
+        <v>0.02827402658294886</v>
       </c>
       <c r="K114" t="n">
-        <v>0.002888855757191777</v>
+        <v>0.003404363291338086</v>
       </c>
     </row>
     <row r="115">
@@ -5755,31 +5755,31 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1134</v>
+        <v>2043</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3983571119606495</v>
+        <v>0.6873115377966315</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6173773460322991</v>
+        <v>1.069249769090675</v>
       </c>
       <c r="F115" t="n">
-        <v>1134</v>
+        <v>2043</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03771317773498595</v>
+        <v>0.07895172631833702</v>
       </c>
       <c r="H115" t="n">
-        <v>0.4563398227328435</v>
+        <v>0.7919663940556347</v>
       </c>
       <c r="I115" t="n">
-        <v>0.03278446255717427</v>
+        <v>0.07044374372344464</v>
       </c>
       <c r="J115" t="n">
-        <v>0.08233743021264672</v>
+        <v>0.1127756217028946</v>
       </c>
       <c r="K115" t="n">
-        <v>0.002155156806111336</v>
+        <v>0.003836201503872871</v>
       </c>
     </row>
     <row r="116">
@@ -5790,31 +5790,31 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>708</v>
+        <v>1181</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2580140247009695</v>
+        <v>0.4146068075206131</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4316068360349163</v>
+        <v>0.6943333690287545</v>
       </c>
       <c r="F116" t="n">
-        <v>708</v>
+        <v>1181</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02794649172574282</v>
+        <v>0.05777287704404444</v>
       </c>
       <c r="H116" t="n">
-        <v>0.2954925497760996</v>
+        <v>0.4781061136163771</v>
       </c>
       <c r="I116" t="n">
-        <v>0.01974279317073524</v>
+        <v>0.03762524551711977</v>
       </c>
       <c r="J116" t="n">
-        <v>0.08328348852228373</v>
+        <v>0.1119105641264468</v>
       </c>
       <c r="K116" t="n">
-        <v>0.001353368395939469</v>
+        <v>0.00221067713573575</v>
       </c>
     </row>
     <row r="117">
@@ -5825,31 +5825,31 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4021</v>
+        <v>3452</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01781463471706957</v>
+        <v>0.0158961956622079</v>
       </c>
       <c r="E117" t="n">
-        <v>1.181943170027807</v>
+        <v>0.8165194829925895</v>
       </c>
       <c r="F117" t="n">
-        <v>4021</v>
+        <v>3452</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4281263763550669</v>
+        <v>0.2714149022940546</v>
       </c>
       <c r="H117" t="n">
-        <v>0.1969605091726407</v>
+        <v>0.1681926548480988</v>
       </c>
       <c r="I117" t="n">
-        <v>0.4681277677882463</v>
+        <v>0.3063896658131853</v>
       </c>
       <c r="J117" t="n">
-        <v>0.05892144935205579</v>
+        <v>0.04435107239987701</v>
       </c>
       <c r="K117" t="n">
-        <v>0.008150483248755336</v>
+        <v>0.007228128612041473</v>
       </c>
     </row>
     <row r="118">
@@ -5860,31 +5860,31 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1509</v>
+        <v>2178</v>
       </c>
       <c r="D118" t="n">
-        <v>0.531436811434105</v>
+        <v>0.726540832198225</v>
       </c>
       <c r="E118" t="n">
-        <v>1.080970688024536</v>
+        <v>1.480400517000817</v>
       </c>
       <c r="F118" t="n">
-        <v>1509</v>
+        <v>2178</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1397406049072742</v>
+        <v>0.1985799121903256</v>
       </c>
       <c r="H118" t="n">
-        <v>0.6212908270535991</v>
+        <v>0.8566041678423062</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1581408124184236</v>
+        <v>0.2043113486142829</v>
       </c>
       <c r="J118" t="n">
-        <v>0.149921361473389</v>
+        <v>0.2033393566962332</v>
       </c>
       <c r="K118" t="n">
-        <v>0.003232011571526527</v>
+        <v>0.004845547024160624</v>
       </c>
     </row>
     <row r="119">
@@ -5895,31 +5895,31 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>969</v>
+        <v>1276</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3541784550761804</v>
+        <v>0.4337512152269483</v>
       </c>
       <c r="E119" t="n">
-        <v>0.732439897954464</v>
+        <v>0.9188013250241056</v>
       </c>
       <c r="F119" t="n">
-        <v>969</v>
+        <v>1276</v>
       </c>
       <c r="G119" t="n">
-        <v>0.1092750092502683</v>
+        <v>0.1430296711623669</v>
       </c>
       <c r="H119" t="n">
-        <v>0.4126005065627396</v>
+        <v>0.5119300618534908</v>
       </c>
       <c r="I119" t="n">
-        <v>0.08813043229747564</v>
+        <v>0.1044545057229698</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1146966714877635</v>
+        <v>0.1490788586670533</v>
       </c>
       <c r="K119" t="n">
-        <v>0.002091668196953833</v>
+        <v>0.002865000860765576</v>
       </c>
     </row>
     <row r="120">
@@ -5930,31 +5930,31 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>708</v>
+        <v>1181</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3926655404502526</v>
+        <v>0.916061429772526</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5841533099301159</v>
+        <v>1.431849029962905</v>
       </c>
       <c r="F120" t="n">
-        <v>708</v>
+        <v>1181</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02867786027491093</v>
+        <v>0.05896592955105007</v>
       </c>
       <c r="H120" t="n">
-        <v>0.4303656584816054</v>
+        <v>0.9806050346232951</v>
       </c>
       <c r="I120" t="n">
-        <v>0.02027003141120076</v>
+        <v>0.03875112137757242</v>
       </c>
       <c r="J120" t="n">
-        <v>0.09928740165196359</v>
+        <v>0.3443338630022481</v>
       </c>
       <c r="K120" t="n">
-        <v>0.001404236769303679</v>
+        <v>0.0023591861827299</v>
       </c>
     </row>
     <row r="121">
@@ -5965,11 +5965,11 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>19705</v>
+        <v>20797</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="n">
-        <v>26.93094624683727</v>
+        <v>25.18640626978595</v>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
@@ -5990,31 +5990,31 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1512</v>
+        <v>1668</v>
       </c>
       <c r="D122" t="n">
-        <v>0.006188041064888239</v>
+        <v>0.007280751713551581</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2145766749745235</v>
+        <v>0.2537502909544855</v>
       </c>
       <c r="F122" t="n">
-        <v>1512</v>
+        <v>1668</v>
       </c>
       <c r="G122" t="n">
-        <v>0.07602265512105078</v>
+        <v>0.09016240015625954</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0658454914810136</v>
+        <v>0.07419656577985734</v>
       </c>
       <c r="I122" t="n">
-        <v>0.03931133449077606</v>
+        <v>0.04773176147136837</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02316463843453676</v>
+        <v>0.0301235067890957</v>
       </c>
       <c r="K122" t="n">
-        <v>0.002686477499082685</v>
+        <v>0.002975362353026867</v>
       </c>
     </row>
     <row r="123">
@@ -6025,31 +6025,31 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1510</v>
+        <v>1462</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6368626559851691</v>
+        <v>0.7326299941632897</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9804446970811114</v>
+        <v>1.105093668913469</v>
       </c>
       <c r="F123" t="n">
-        <v>1510</v>
+        <v>1462</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0730238858377561</v>
+        <v>0.07763043406885117</v>
       </c>
       <c r="H123" t="n">
-        <v>0.7184470514766872</v>
+        <v>0.8123129358282313</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0563640653854236</v>
+        <v>0.06132253794930875</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1214620555983856</v>
+        <v>0.1427945696050301</v>
       </c>
       <c r="K123" t="n">
-        <v>0.002950710826553404</v>
+        <v>0.002764820703305304</v>
       </c>
     </row>
     <row r="124">
@@ -6060,31 +6060,31 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>891</v>
+        <v>850</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3962111971341074</v>
+        <v>0.3880894982721657</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6713009639643133</v>
+        <v>0.6814868429210037</v>
       </c>
       <c r="F124" t="n">
-        <v>891</v>
+        <v>850</v>
       </c>
       <c r="G124" t="n">
-        <v>0.05429793929215521</v>
+        <v>0.05761057347990572</v>
       </c>
       <c r="H124" t="n">
-        <v>0.4473920522723347</v>
+        <v>0.436802851036191</v>
       </c>
       <c r="I124" t="n">
-        <v>0.03429683449212462</v>
+        <v>0.0361468275077641</v>
       </c>
       <c r="J124" t="n">
-        <v>0.128687284886837</v>
+        <v>0.1442461634287611</v>
       </c>
       <c r="K124" t="n">
-        <v>0.001727957162074745</v>
+        <v>0.001626421348191798</v>
       </c>
     </row>
     <row r="125">
@@ -6095,31 +6095,31 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2258</v>
+        <v>2178</v>
       </c>
       <c r="D125" t="n">
-        <v>0.010050522047095</v>
+        <v>0.01017928519286215</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6023652449948713</v>
+        <v>0.4500967860221863</v>
       </c>
       <c r="F125" t="n">
-        <v>2258</v>
+        <v>2178</v>
       </c>
       <c r="G125" t="n">
-        <v>0.289479726110585</v>
+        <v>0.1714471286395565</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1082138551864773</v>
+        <v>0.1049146618461236</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1622643548762426</v>
+        <v>0.1320237905019894</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02607413323130459</v>
+        <v>0.0254220652859658</v>
       </c>
       <c r="K125" t="n">
-        <v>0.004539444693364203</v>
+        <v>0.004576324135996401</v>
       </c>
     </row>
     <row r="126">
@@ -6130,31 +6130,31 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6696079297689721</v>
+        <v>0.634696124936454</v>
       </c>
       <c r="E126" t="n">
-        <v>1.319902836927213</v>
+        <v>1.267585092922673</v>
       </c>
       <c r="F126" t="n">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1441504821414128</v>
+        <v>0.1492077785078436</v>
       </c>
       <c r="H126" t="n">
-        <v>0.7675346205942333</v>
+        <v>0.7337140867020935</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1470031009521335</v>
+        <v>0.1298860419774428</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2485816166736186</v>
+        <v>0.2415938680060208</v>
       </c>
       <c r="K126" t="n">
-        <v>0.003636027104221284</v>
+        <v>0.003882729331962764</v>
       </c>
     </row>
     <row r="127">
@@ -6165,31 +6165,31 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>920</v>
+        <v>855</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4138804264366627</v>
+        <v>0.3953108614077792</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8432095219613984</v>
+        <v>0.7876575810369104</v>
       </c>
       <c r="F127" t="n">
-        <v>920</v>
+        <v>855</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1039841319434345</v>
+        <v>0.09871032380033284</v>
       </c>
       <c r="H127" t="n">
-        <v>0.4729308688547462</v>
+        <v>0.4499508169246837</v>
       </c>
       <c r="I127" t="n">
-        <v>0.07975678856018931</v>
+        <v>0.05876680335495621</v>
       </c>
       <c r="J127" t="n">
-        <v>0.179195533040911</v>
+        <v>0.173323382739909</v>
       </c>
       <c r="K127" t="n">
-        <v>0.002076870063319802</v>
+        <v>0.001917440444231033</v>
       </c>
     </row>
     <row r="128">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>891</v>
+        <v>850</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7385590414050967</v>
+        <v>0.8143602311611176</v>
       </c>
       <c r="E128" t="n">
-        <v>1.150627017021179</v>
+        <v>1.290796709945425</v>
       </c>
       <c r="F128" t="n">
-        <v>891</v>
+        <v>850</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05469526501838118</v>
+        <v>0.05901079729665071</v>
       </c>
       <c r="H128" t="n">
-        <v>0.7894133566878736</v>
+        <v>0.8643439661245793</v>
       </c>
       <c r="I128" t="n">
-        <v>0.03492525650653988</v>
+        <v>0.03738591854926199</v>
       </c>
       <c r="J128" t="n">
-        <v>0.2647581908386201</v>
+        <v>0.3233033574651927</v>
       </c>
       <c r="K128" t="n">
-        <v>0.001783095067366958</v>
+        <v>0.001755021861754358</v>
       </c>
     </row>
     <row r="129">
@@ -6235,11 +6235,11 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>21410</v>
+        <v>21727</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
-        <v>25.7087056459859</v>
+        <v>25.21973198675551</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -6260,31 +6260,31 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1666</v>
+        <v>1156</v>
       </c>
       <c r="D130" t="n">
-        <v>0.007214284269139171</v>
+        <v>0.005278459750115871</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2376359719783068</v>
+        <v>0.1703702349914238</v>
       </c>
       <c r="F130" t="n">
-        <v>1666</v>
+        <v>1156</v>
       </c>
       <c r="G130" t="n">
-        <v>0.07977437612134963</v>
+        <v>0.05695143877528608</v>
       </c>
       <c r="H130" t="n">
-        <v>0.07366270665079355</v>
+        <v>0.05164042324759066</v>
       </c>
       <c r="I130" t="n">
-        <v>0.04496866965200752</v>
+        <v>0.03222320612985641</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0280046733096242</v>
+        <v>0.02159486047457904</v>
       </c>
       <c r="K130" t="n">
-        <v>0.002948693349026144</v>
+        <v>0.002072464092634618</v>
       </c>
     </row>
     <row r="131">
@@ -6295,31 +6295,31 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1411</v>
+        <v>930</v>
       </c>
       <c r="D131" t="n">
-        <v>0.697406243532896</v>
+        <v>0.4194580866023898</v>
       </c>
       <c r="E131" t="n">
-        <v>1.02720487001352</v>
+        <v>0.6861365889199078</v>
       </c>
       <c r="F131" t="n">
-        <v>1411</v>
+        <v>930</v>
       </c>
       <c r="G131" t="n">
-        <v>0.06234412943013012</v>
+        <v>0.04671715735457838</v>
       </c>
       <c r="H131" t="n">
-        <v>0.7743956744670868</v>
+        <v>0.4706789127085358</v>
       </c>
       <c r="I131" t="n">
-        <v>0.05720571812707931</v>
+        <v>0.03922044532373548</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1228804129641503</v>
+        <v>0.1224770909175277</v>
       </c>
       <c r="K131" t="n">
-        <v>0.002686589024960995</v>
+        <v>0.001771652256138623</v>
       </c>
     </row>
     <row r="132">
@@ -6330,31 +6330,31 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>868</v>
+        <v>551</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3640048420056701</v>
+        <v>0.2613896891707554</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6241527680540457</v>
+        <v>0.4751977920532227</v>
       </c>
       <c r="F132" t="n">
-        <v>868</v>
+        <v>551</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04723347048275173</v>
+        <v>0.03475072514265776</v>
       </c>
       <c r="H132" t="n">
-        <v>0.412967822747305</v>
+        <v>0.2932091701077297</v>
       </c>
       <c r="I132" t="n">
-        <v>0.03716424305457622</v>
+        <v>0.02410479623358697</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1202956542838365</v>
+        <v>0.1187754096463323</v>
       </c>
       <c r="K132" t="n">
-        <v>0.001675164327025414</v>
+        <v>0.001073319814167917</v>
       </c>
     </row>
     <row r="133">
@@ -6365,31 +6365,31 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2408</v>
+        <v>1632</v>
       </c>
       <c r="D133" t="n">
-        <v>0.01300322054885328</v>
+        <v>0.007973793428391218</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5299730038968846</v>
+        <v>0.3548733630450442</v>
       </c>
       <c r="F133" t="n">
-        <v>2408</v>
+        <v>1632</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1867327780928463</v>
+        <v>0.1291495244950056</v>
       </c>
       <c r="H133" t="n">
-        <v>0.1194430153118446</v>
+        <v>0.07991665508598089</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1759014350827783</v>
+        <v>0.1126989653566852</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03031752957031131</v>
+        <v>0.02105649642180651</v>
       </c>
       <c r="K133" t="n">
-        <v>0.00493411032948643</v>
+        <v>0.003247988177463412</v>
       </c>
     </row>
     <row r="134">
@@ -6400,31 +6400,31 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1453</v>
+        <v>961</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6022453554905951</v>
+        <v>0.4404896246269345</v>
       </c>
       <c r="E134" t="n">
-        <v>1.17779428709764</v>
+        <v>0.8948045639554039</v>
       </c>
       <c r="F134" t="n">
-        <v>1453</v>
+        <v>961</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1355163207044825</v>
+        <v>0.08996541285887361</v>
       </c>
       <c r="H134" t="n">
-        <v>0.6960624640341848</v>
+        <v>0.5006830940255895</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1313497219234705</v>
+        <v>0.08969203208107501</v>
       </c>
       <c r="J134" t="n">
-        <v>0.2033267172519118</v>
+        <v>0.2066659395350143</v>
       </c>
       <c r="K134" t="n">
-        <v>0.003301326418295503</v>
+        <v>0.002130234381183982</v>
       </c>
     </row>
     <row r="135">
@@ -6435,31 +6435,31 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>891</v>
+        <v>565</v>
       </c>
       <c r="D135" t="n">
-        <v>0.377771129948087</v>
+        <v>0.2724581754300743</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7646761669311672</v>
+        <v>0.5758269510697573</v>
       </c>
       <c r="F135" t="n">
-        <v>891</v>
+        <v>565</v>
       </c>
       <c r="G135" t="n">
-        <v>0.103218604112044</v>
+        <v>0.06462820537853986</v>
       </c>
       <c r="H135" t="n">
-        <v>0.4360487073427066</v>
+        <v>0.3086607132572681</v>
       </c>
       <c r="I135" t="n">
-        <v>0.06949772906955332</v>
+        <v>0.04479617415927351</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1486079038586468</v>
+        <v>0.1531790789449587</v>
       </c>
       <c r="K135" t="n">
-        <v>0.002031609299592674</v>
+        <v>0.00125088426284492</v>
       </c>
     </row>
     <row r="136">
@@ -6470,31 +6470,31 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>868</v>
+        <v>551</v>
       </c>
       <c r="D136" t="n">
-        <v>0.833675985224545</v>
+        <v>0.5142653398215771</v>
       </c>
       <c r="E136" t="n">
-        <v>1.224767134990543</v>
+        <v>0.8583910639863461</v>
       </c>
       <c r="F136" t="n">
-        <v>868</v>
+        <v>551</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04900892521254718</v>
+        <v>0.03548887255601585</v>
       </c>
       <c r="H136" t="n">
-        <v>0.88438885146752</v>
+        <v>0.5465161663014442</v>
       </c>
       <c r="I136" t="n">
-        <v>0.03841331321746111</v>
+        <v>0.02472432237118483</v>
       </c>
       <c r="J136" t="n">
-        <v>0.2457575600128621</v>
+        <v>0.2472847130848095</v>
       </c>
       <c r="K136" t="n">
-        <v>0.001814238145016134</v>
+        <v>0.001127403462305665</v>
       </c>
     </row>
     <row r="137">
@@ -6505,11 +6505,11 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>20082</v>
+        <v>17130</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="n">
-        <v>25.50049919483718</v>
+        <v>25.33816217177082</v>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
@@ -6530,31 +6530,31 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1478</v>
+        <v>1605</v>
       </c>
       <c r="D138" t="n">
-        <v>0.008032829617150128</v>
+        <v>0.006999899982474744</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2296153609640896</v>
+        <v>0.2401984910247847</v>
       </c>
       <c r="F138" t="n">
-        <v>1478</v>
+        <v>1605</v>
       </c>
       <c r="G138" t="n">
-        <v>0.08445173688232899</v>
+        <v>0.08684061688836664</v>
       </c>
       <c r="H138" t="n">
-        <v>0.06786546239163727</v>
+        <v>0.07083526160567999</v>
       </c>
       <c r="I138" t="n">
-        <v>0.04319350223522633</v>
+        <v>0.04309718415606767</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02407217025756836</v>
+        <v>0.02845372399315238</v>
       </c>
       <c r="K138" t="n">
-        <v>0.002660724683664739</v>
+        <v>0.002826386946253479</v>
       </c>
     </row>
     <row r="139">
@@ -6565,31 +6565,31 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1417</v>
+        <v>1513</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6076298088300973</v>
+        <v>0.5940097090788186</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9793837650213391</v>
+        <v>0.9816052350215614</v>
       </c>
       <c r="F139" t="n">
-        <v>1417</v>
+        <v>1513</v>
       </c>
       <c r="G139" t="n">
-        <v>0.08207771682646126</v>
+        <v>0.08533740544226021</v>
       </c>
       <c r="H139" t="n">
-        <v>0.6833258442347869</v>
+        <v>0.6753740737913176</v>
       </c>
       <c r="I139" t="n">
-        <v>0.05865157791413367</v>
+        <v>0.06582348293159157</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1447941254591569</v>
+        <v>0.1436363724060357</v>
       </c>
       <c r="K139" t="n">
-        <v>0.002734825829975307</v>
+        <v>0.002915330580435693</v>
       </c>
     </row>
     <row r="140">
@@ -6600,31 +6600,31 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>789</v>
+        <v>899</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3720508406404406</v>
+        <v>0.3897621037904173</v>
       </c>
       <c r="E140" t="n">
-        <v>0.6620552620152012</v>
+        <v>0.7991020979825407</v>
       </c>
       <c r="F140" t="n">
-        <v>789</v>
+        <v>899</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06137869157828391</v>
+        <v>0.06369879108387977</v>
       </c>
       <c r="H140" t="n">
-        <v>0.4175511618377641</v>
+        <v>0.4403372532688081</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0336388231953606</v>
+        <v>0.03637538675684482</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1435657945694402</v>
+        <v>0.251885628211312</v>
       </c>
       <c r="K140" t="n">
-        <v>0.001544537604786456</v>
+        <v>0.001730175456032157</v>
       </c>
     </row>
     <row r="141">
@@ -6635,31 +6635,31 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1799</v>
+        <v>2059</v>
       </c>
       <c r="D141" t="n">
-        <v>0.008260654052719474</v>
+        <v>0.009528773603960872</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3527847590157762</v>
+        <v>0.5168421999551356</v>
       </c>
       <c r="F141" t="n">
-        <v>1799</v>
+        <v>2059</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1402293008286506</v>
+        <v>0.2779691320611164</v>
       </c>
       <c r="H141" t="n">
-        <v>0.08673536649439484</v>
+        <v>0.09770969639066607</v>
       </c>
       <c r="I141" t="n">
-        <v>0.09660247259307653</v>
+        <v>0.1060315732611343</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01615494943689555</v>
+        <v>0.02012733102310449</v>
       </c>
       <c r="K141" t="n">
-        <v>0.003765309229493141</v>
+        <v>0.004093864699825644</v>
       </c>
     </row>
     <row r="142">
@@ -6670,31 +6670,31 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1436</v>
+        <v>1515</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6190934759797528</v>
+        <v>0.7117053766269237</v>
       </c>
       <c r="E142" t="n">
-        <v>1.376947809010744</v>
+        <v>1.302561455988325</v>
       </c>
       <c r="F142" t="n">
-        <v>1436</v>
+        <v>1515</v>
       </c>
       <c r="G142" t="n">
-        <v>0.2971802527317777</v>
+        <v>0.138962357188575</v>
       </c>
       <c r="H142" t="n">
-        <v>0.7037435674574226</v>
+        <v>0.8015241815010086</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1166433199541643</v>
+        <v>0.1077991661150008</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2480512119363993</v>
+        <v>0.2421511217253283</v>
       </c>
       <c r="K142" t="n">
-        <v>0.003269911976531148</v>
+        <v>0.003352366387844086</v>
       </c>
     </row>
     <row r="143">
@@ -6705,31 +6705,31 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>791</v>
+        <v>899</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3810054531786591</v>
+        <v>0.3896877072984353</v>
       </c>
       <c r="E143" t="n">
-        <v>0.7613768139854074</v>
+        <v>0.7821688849944621</v>
       </c>
       <c r="F143" t="n">
-        <v>791</v>
+        <v>899</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0909891304327175</v>
+        <v>0.1018063575029373</v>
       </c>
       <c r="H143" t="n">
-        <v>0.4304539612494409</v>
+        <v>0.444431155687198</v>
       </c>
       <c r="I143" t="n">
-        <v>0.05519037204794586</v>
+        <v>0.05457821453455836</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1784228356555104</v>
+        <v>0.1741324284812436</v>
       </c>
       <c r="K143" t="n">
-        <v>0.00183485122397542</v>
+        <v>0.00201109831687063</v>
       </c>
     </row>
     <row r="144">
@@ -6740,31 +6740,31 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>789</v>
+        <v>899</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9550087162060663</v>
+        <v>0.8257401710143313</v>
       </c>
       <c r="E144" t="n">
-        <v>1.542520641931333</v>
+        <v>1.322632502997294</v>
       </c>
       <c r="F144" t="n">
-        <v>789</v>
+        <v>899</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0632897901814431</v>
+        <v>0.06752034672535956</v>
       </c>
       <c r="H144" t="n">
-        <v>1.002272347919643</v>
+        <v>0.877163621946238</v>
       </c>
       <c r="I144" t="n">
-        <v>0.03496749221812934</v>
+        <v>0.03749513637740165</v>
       </c>
       <c r="J144" t="n">
-        <v>0.4357569995336235</v>
+        <v>0.3332844803808257</v>
       </c>
       <c r="K144" t="n">
-        <v>0.001624667318537831</v>
+        <v>0.00184597703628242</v>
       </c>
     </row>
     <row r="145">
@@ -6775,11 +6775,11 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>20359</v>
+        <v>22337</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="n">
-        <v>25.52421788813081</v>
+        <v>25.43814918329008</v>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
@@ -6800,31 +6800,31 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1016</v>
+        <v>1220</v>
       </c>
       <c r="D146" t="n">
-        <v>0.004503201111219823</v>
+        <v>0.005552067770622671</v>
       </c>
       <c r="E146" t="n">
-        <v>0.135788427083753</v>
+        <v>0.1748463329859078</v>
       </c>
       <c r="F146" t="n">
-        <v>1016</v>
+        <v>1220</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0411326908506453</v>
+        <v>0.05892239417880774</v>
       </c>
       <c r="H146" t="n">
-        <v>0.04443770868238062</v>
+        <v>0.05403708049561828</v>
       </c>
       <c r="I146" t="n">
-        <v>0.02561439434066415</v>
+        <v>0.03234470612369478</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01776853948831558</v>
+        <v>0.02113218070007861</v>
       </c>
       <c r="K146" t="n">
-        <v>0.001826129038818181</v>
+        <v>0.002169426181353629</v>
       </c>
     </row>
     <row r="147">
@@ -6835,31 +6835,31 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>639</v>
+        <v>898</v>
       </c>
       <c r="D147" t="n">
-        <v>0.2601886937627569</v>
+        <v>0.4081420459551737</v>
       </c>
       <c r="E147" t="n">
-        <v>0.4199744829675183</v>
+        <v>0.6490244509186596</v>
       </c>
       <c r="F147" t="n">
-        <v>639</v>
+        <v>898</v>
       </c>
       <c r="G147" t="n">
-        <v>0.02720368059817702</v>
+        <v>0.04317503946367651</v>
       </c>
       <c r="H147" t="n">
-        <v>0.2931562504963949</v>
+        <v>0.4566111045423895</v>
       </c>
       <c r="I147" t="n">
-        <v>0.02207251824438572</v>
+        <v>0.03299362224061042</v>
       </c>
       <c r="J147" t="n">
-        <v>0.07283993239980191</v>
+        <v>0.1094472463009879</v>
       </c>
       <c r="K147" t="n">
-        <v>0.001242542406544089</v>
+        <v>0.001745752175338566</v>
       </c>
     </row>
     <row r="148">
@@ -6870,31 +6870,31 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>405</v>
+        <v>538</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1779808496357873</v>
+        <v>0.2565055984305218</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3111916000489146</v>
+        <v>0.4560834630392492</v>
       </c>
       <c r="F148" t="n">
-        <v>405</v>
+        <v>538</v>
       </c>
       <c r="G148" t="n">
-        <v>0.02150248689576983</v>
+        <v>0.03272407676558942</v>
       </c>
       <c r="H148" t="n">
-        <v>0.2003800474340096</v>
+        <v>0.2873377113137394</v>
       </c>
       <c r="I148" t="n">
-        <v>0.01425807015039027</v>
+        <v>0.02060968906152993</v>
       </c>
       <c r="J148" t="n">
-        <v>0.07201804069336504</v>
+        <v>0.111312736873515</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0008074536453932524</v>
+        <v>0.001037446898408234</v>
       </c>
     </row>
     <row r="149">
@@ -6905,31 +6905,31 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="D149" t="n">
-        <v>0.007902072393335402</v>
+        <v>0.008311781100928783</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3865907620638609</v>
+        <v>0.3508366910973564</v>
       </c>
       <c r="F149" t="n">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1292259028414264</v>
+        <v>0.1292726917890832</v>
       </c>
       <c r="H149" t="n">
-        <v>0.08096177421975881</v>
+        <v>0.08095879585016519</v>
       </c>
       <c r="I149" t="n">
-        <v>0.1417197010014206</v>
+        <v>0.1098215995589271</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02245718275662512</v>
+        <v>0.01850554242264479</v>
       </c>
       <c r="K149" t="n">
-        <v>0.003404676448553801</v>
+        <v>0.003314830479212105</v>
       </c>
     </row>
     <row r="150">
@@ -6940,31 +6940,31 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>679</v>
+        <v>980</v>
       </c>
       <c r="D150" t="n">
-        <v>0.2783343360060826</v>
+        <v>0.441869929083623</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5832723450148478</v>
+        <v>0.8859505839645863</v>
       </c>
       <c r="F150" t="n">
-        <v>679</v>
+        <v>980</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06284229492302984</v>
+        <v>0.09335425577592105</v>
       </c>
       <c r="H150" t="n">
-        <v>0.3192946919007227</v>
+        <v>0.5012565643992275</v>
       </c>
       <c r="I150" t="n">
-        <v>0.06385711778420955</v>
+        <v>0.08304455410689116</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1318856086581945</v>
+        <v>0.2003536825068295</v>
       </c>
       <c r="K150" t="n">
-        <v>0.001525935134850442</v>
+        <v>0.002173114567995071</v>
       </c>
     </row>
     <row r="151">
@@ -6975,31 +6975,31 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>440</v>
+        <v>596</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1965041391085833</v>
+        <v>0.283112576813437</v>
       </c>
       <c r="E151" t="n">
-        <v>0.4171692040981725</v>
+        <v>0.588102626032196</v>
       </c>
       <c r="F151" t="n">
-        <v>440</v>
+        <v>596</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05079127149656415</v>
+        <v>0.06850996939465404</v>
       </c>
       <c r="H151" t="n">
-        <v>0.2246791418874636</v>
+        <v>0.3206919453805313</v>
       </c>
       <c r="I151" t="n">
-        <v>0.03573032631538808</v>
+        <v>0.0482133092591539</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1023958951700479</v>
+        <v>0.1458241062937304</v>
       </c>
       <c r="K151" t="n">
-        <v>0.00101348222233355</v>
+        <v>0.001337079796940088</v>
       </c>
     </row>
     <row r="152">
@@ -7010,31 +7010,31 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>405</v>
+        <v>538</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2664841600926593</v>
+        <v>0.4350321629317477</v>
       </c>
       <c r="E152" t="n">
-        <v>0.4525487599894404</v>
+        <v>0.7574906389927492</v>
       </c>
       <c r="F152" t="n">
-        <v>405</v>
+        <v>538</v>
       </c>
       <c r="G152" t="n">
-        <v>0.02187007945030928</v>
+        <v>0.03333491575904191</v>
       </c>
       <c r="H152" t="n">
-        <v>0.2889045851770788</v>
+        <v>0.4661218089750037</v>
       </c>
       <c r="I152" t="n">
-        <v>0.01453229773323983</v>
+        <v>0.02112756751012057</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1239975645439699</v>
+        <v>0.2326166265411302</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0008174324175342917</v>
+        <v>0.001137098879553378</v>
       </c>
     </row>
     <row r="153">
@@ -7045,11 +7045,11 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>19228</v>
+        <v>20583</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="n">
-        <v>25.09899031114765</v>
+        <v>25.47505717689637</v>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
@@ -7070,31 +7070,31 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1927</v>
+        <v>1280</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009090164676308632</v>
+        <v>0.005960552603937685</v>
       </c>
       <c r="E154" t="n">
-        <v>0.2674179159803316</v>
+        <v>0.1973667499842122</v>
       </c>
       <c r="F154" t="n">
-        <v>1927</v>
+        <v>1280</v>
       </c>
       <c r="G154" t="n">
-        <v>0.09078950679395348</v>
+        <v>0.06950100720860064</v>
       </c>
       <c r="H154" t="n">
-        <v>0.0845153087284416</v>
+        <v>0.05787991045508534</v>
       </c>
       <c r="I154" t="n">
-        <v>0.04858996684197336</v>
+        <v>0.03787664836272597</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03055752208456397</v>
+        <v>0.0232652589911595</v>
       </c>
       <c r="K154" t="n">
-        <v>0.003427799674682319</v>
+        <v>0.002276666113175452</v>
       </c>
     </row>
     <row r="155">
@@ -7105,31 +7105,31 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1849</v>
+        <v>1332</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6932312672724947</v>
+        <v>0.5600086342310533</v>
       </c>
       <c r="E155" t="n">
-        <v>1.088755586068146</v>
+        <v>0.9076289900112897</v>
       </c>
       <c r="F155" t="n">
-        <v>1849</v>
+        <v>1332</v>
       </c>
       <c r="G155" t="n">
-        <v>0.08441811299417168</v>
+        <v>0.06970217579510063</v>
       </c>
       <c r="H155" t="n">
-        <v>0.7922922283178195</v>
+        <v>0.630097028799355</v>
       </c>
       <c r="I155" t="n">
-        <v>0.06787609192542732</v>
+        <v>0.05755656294059008</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1305666193366051</v>
+        <v>0.1402728048851714</v>
       </c>
       <c r="K155" t="n">
-        <v>0.003551190253347158</v>
+        <v>0.002510997583158314</v>
       </c>
     </row>
     <row r="156">
@@ -7140,31 +7140,31 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1100</v>
+        <v>763</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4326390273636207</v>
+        <v>0.3515516013139859</v>
       </c>
       <c r="E156" t="n">
-        <v>0.7400635259691626</v>
+        <v>0.6173626210074872</v>
       </c>
       <c r="F156" t="n">
-        <v>1100</v>
+        <v>763</v>
       </c>
       <c r="G156" t="n">
-        <v>0.063016825937666</v>
+        <v>0.05088915617670864</v>
       </c>
       <c r="H156" t="n">
-        <v>0.4940993225900456</v>
+        <v>0.3942995549878106</v>
       </c>
       <c r="I156" t="n">
-        <v>0.03952076425775886</v>
+        <v>0.03334715380333364</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1352832050761208</v>
+        <v>0.1328122894046828</v>
       </c>
       <c r="K156" t="n">
-        <v>0.002126092906109989</v>
+        <v>0.001461227191612124</v>
       </c>
     </row>
     <row r="157">
@@ -7175,31 +7175,31 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2825</v>
+        <v>1666</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01289517828263342</v>
+        <v>0.008227614802308381</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6134306790772825</v>
+        <v>0.3347663340391591</v>
       </c>
       <c r="F157" t="n">
-        <v>2825</v>
+        <v>1666</v>
       </c>
       <c r="G157" t="n">
-        <v>0.2211693676654249</v>
+        <v>0.1303356565767899</v>
       </c>
       <c r="H157" t="n">
-        <v>0.1354367346502841</v>
+        <v>0.08028344612102956</v>
       </c>
       <c r="I157" t="n">
-        <v>0.2043504306348041</v>
+        <v>0.09443278913386166</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03208204824477434</v>
+        <v>0.01757412531878799</v>
       </c>
       <c r="K157" t="n">
-        <v>0.005723118199966848</v>
+        <v>0.003342644311487675</v>
       </c>
     </row>
     <row r="158">
@@ -7210,31 +7210,31 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2024</v>
+        <v>1386</v>
       </c>
       <c r="D158" t="n">
-        <v>0.8304777948651463</v>
+        <v>0.5862664118176326</v>
       </c>
       <c r="E158" t="n">
-        <v>1.581246983027086</v>
+        <v>1.147432763013057</v>
       </c>
       <c r="F158" t="n">
-        <v>2024</v>
+        <v>1386</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1889212499372661</v>
+        <v>0.1271596071310341</v>
       </c>
       <c r="H158" t="n">
-        <v>0.9547646399587393</v>
+        <v>0.6717908729333431</v>
       </c>
       <c r="I158" t="n">
-        <v>0.2026911046123132</v>
+        <v>0.1136157694272697</v>
       </c>
       <c r="J158" t="n">
-        <v>0.2185482499189675</v>
+        <v>0.2237162647070363</v>
       </c>
       <c r="K158" t="n">
-        <v>0.004790044040419161</v>
+        <v>0.003108674311079085</v>
       </c>
     </row>
     <row r="159">
@@ -7245,31 +7245,31 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1203</v>
+        <v>804</v>
       </c>
       <c r="D159" t="n">
-        <v>0.4473980172770098</v>
+        <v>0.3709244757192209</v>
       </c>
       <c r="E159" t="n">
-        <v>0.925709989038296</v>
+        <v>0.7467935800086707</v>
       </c>
       <c r="F159" t="n">
-        <v>1203</v>
+        <v>804</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1389588590245694</v>
+        <v>0.09099325886927545</v>
       </c>
       <c r="H159" t="n">
-        <v>0.5241252604173496</v>
+        <v>0.4220747668296099</v>
       </c>
       <c r="I159" t="n">
-        <v>0.09834420052357018</v>
+        <v>0.05996540503110737</v>
       </c>
       <c r="J159" t="n">
-        <v>0.154671213356778</v>
+        <v>0.1672919562552124</v>
       </c>
       <c r="K159" t="n">
-        <v>0.002753448323346674</v>
+        <v>0.001777560450136662</v>
       </c>
     </row>
     <row r="160">
@@ -7280,31 +7280,31 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1100</v>
+        <v>763</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9993911354104057</v>
+        <v>0.7643575830152258</v>
       </c>
       <c r="E160" t="n">
-        <v>1.518370557925664</v>
+        <v>1.196571851964109</v>
       </c>
       <c r="F160" t="n">
-        <v>1100</v>
+        <v>763</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06517214013729244</v>
+        <v>0.05224294145591557</v>
       </c>
       <c r="H160" t="n">
-        <v>1.062338966410607</v>
+        <v>0.8075581132434309</v>
       </c>
       <c r="I160" t="n">
-        <v>0.04112873738631606</v>
+        <v>0.03436718857847154</v>
       </c>
       <c r="J160" t="n">
-        <v>0.3411656469106674</v>
+        <v>0.2963182661915198</v>
       </c>
       <c r="K160" t="n">
-        <v>0.002263351809233427</v>
+        <v>0.001555401249788702</v>
       </c>
     </row>
     <row r="161">
@@ -7315,11 +7315,11 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>21515</v>
+        <v>21632</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="n">
-        <v>25.25736249808688</v>
+        <v>25.14381222613156</v>
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
@@ -7340,31 +7340,31 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1123</v>
+        <v>1863</v>
       </c>
       <c r="D162" t="n">
-        <v>0.004899125662632287</v>
+        <v>0.007494879537262022</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1574017480015755</v>
+        <v>0.2193816950311884</v>
       </c>
       <c r="F162" t="n">
-        <v>1123</v>
+        <v>1863</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05339148920029402</v>
+        <v>0.07203246292192489</v>
       </c>
       <c r="H162" t="n">
-        <v>0.04909523203969002</v>
+        <v>0.07783910539001226</v>
       </c>
       <c r="I162" t="n">
-        <v>0.02763245429378003</v>
+        <v>0.03413092438131571</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01970843144226819</v>
+        <v>0.02270913857501</v>
       </c>
       <c r="K162" t="n">
-        <v>0.002001936547458172</v>
+        <v>0.003242621547542512</v>
       </c>
     </row>
     <row r="163">
@@ -7375,31 +7375,31 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>837</v>
+        <v>1469</v>
       </c>
       <c r="D163" t="n">
-        <v>0.3699277429841459</v>
+        <v>0.5203867276431993</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5936863400274888</v>
+        <v>0.7918194819940254</v>
       </c>
       <c r="F163" t="n">
-        <v>837</v>
+        <v>1469</v>
       </c>
       <c r="G163" t="n">
-        <v>0.04330224404111505</v>
+        <v>0.05354744754731655</v>
       </c>
       <c r="H163" t="n">
-        <v>0.4143691905774176</v>
+        <v>0.592858497868292</v>
       </c>
       <c r="I163" t="n">
-        <v>0.03325701458379626</v>
+        <v>0.04322889586910605</v>
       </c>
       <c r="J163" t="n">
-        <v>0.09658490319270641</v>
+        <v>0.09127438941504806</v>
       </c>
       <c r="K163" t="n">
-        <v>0.001606639591045678</v>
+        <v>0.002766249119304121</v>
       </c>
     </row>
     <row r="164">
@@ -7410,31 +7410,31 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>505</v>
+        <v>949</v>
       </c>
       <c r="D164" t="n">
-        <v>0.2406109812436625</v>
+        <v>0.3520775333745405</v>
       </c>
       <c r="E164" t="n">
-        <v>0.4243076799903065</v>
+        <v>0.5692645659437403</v>
       </c>
       <c r="F164" t="n">
-        <v>505</v>
+        <v>949</v>
       </c>
       <c r="G164" t="n">
-        <v>0.03255028300918639</v>
+        <v>0.04205830453429371</v>
       </c>
       <c r="H164" t="n">
-        <v>0.2694617393426597</v>
+        <v>0.4011658726958558</v>
       </c>
       <c r="I164" t="n">
-        <v>0.02026652765925974</v>
+        <v>0.02632842236198485</v>
       </c>
       <c r="J164" t="n">
-        <v>0.09824052173644304</v>
+        <v>0.09266118111554533</v>
       </c>
       <c r="K164" t="n">
-        <v>0.000986290629953146</v>
+        <v>0.001798445358872414</v>
       </c>
     </row>
     <row r="165">
@@ -7445,31 +7445,31 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1562</v>
+        <v>3710</v>
       </c>
       <c r="D165" t="n">
-        <v>0.007577321724966168</v>
+        <v>0.01698133465833962</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3343565510585904</v>
+        <v>1.007665322045796</v>
       </c>
       <c r="F165" t="n">
-        <v>1562</v>
+        <v>3710</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1223487671231851</v>
+        <v>0.4121256460202858</v>
       </c>
       <c r="H165" t="n">
-        <v>0.0756430986803025</v>
+        <v>0.1794997024117038</v>
       </c>
       <c r="I165" t="n">
-        <v>0.1082639024825767</v>
+        <v>0.3419920885935426</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01669935532845557</v>
+        <v>0.04647873027715832</v>
       </c>
       <c r="K165" t="n">
-        <v>0.003223373205401003</v>
+        <v>0.007239408791065216</v>
       </c>
     </row>
     <row r="166">
@@ -7480,31 +7480,31 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>854</v>
+        <v>1774</v>
       </c>
       <c r="D166" t="n">
-        <v>0.3841585631016642</v>
+        <v>0.6241068500094116</v>
       </c>
       <c r="E166" t="n">
-        <v>0.7674182950286195</v>
+        <v>1.253545480896719</v>
       </c>
       <c r="F166" t="n">
-        <v>854</v>
+        <v>1774</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07901120558381081</v>
+        <v>0.1618906196672469</v>
       </c>
       <c r="H166" t="n">
-        <v>0.4357526927487925</v>
+        <v>0.7313640337670222</v>
       </c>
       <c r="I166" t="n">
-        <v>0.07228772575035691</v>
+        <v>0.1781876106979325</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1735817498993129</v>
+        <v>0.1675013467902318</v>
       </c>
       <c r="K166" t="n">
-        <v>0.001929401303641498</v>
+        <v>0.003830998204648495</v>
       </c>
     </row>
     <row r="167">
@@ -7515,31 +7515,31 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>519</v>
+        <v>1195</v>
       </c>
       <c r="D167" t="n">
-        <v>0.2557348395930603</v>
+        <v>0.4385073358425871</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5251090839738026</v>
+        <v>0.8935066519770771</v>
       </c>
       <c r="F167" t="n">
-        <v>519</v>
+        <v>1195</v>
       </c>
       <c r="G167" t="n">
-        <v>0.05981156683992594</v>
+        <v>0.1350649686064571</v>
       </c>
       <c r="H167" t="n">
-        <v>0.2886122040217742</v>
+        <v>0.5130881003569812</v>
       </c>
       <c r="I167" t="n">
-        <v>0.04064330155961215</v>
+        <v>0.1077470324235037</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1318431029794738</v>
+        <v>0.1279165658634156</v>
       </c>
       <c r="K167" t="n">
-        <v>0.001213575480505824</v>
+        <v>0.002622881671413779</v>
       </c>
     </row>
     <row r="168">
@@ -7550,31 +7550,31 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>505</v>
+        <v>949</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4236289658583701</v>
+        <v>0.6525159823941067</v>
       </c>
       <c r="E168" t="n">
-        <v>0.7051990400068462</v>
+        <v>0.9427504719933495</v>
       </c>
       <c r="F168" t="n">
-        <v>505</v>
+        <v>949</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0330607914365828</v>
+        <v>0.04303194163367152</v>
       </c>
       <c r="H168" t="n">
-        <v>0.4522620105417445</v>
+        <v>0.701929775532335</v>
       </c>
       <c r="I168" t="n">
-        <v>0.02052134787663817</v>
+        <v>0.02724734460934997</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1954588700318709</v>
+        <v>0.1632105841999874</v>
       </c>
       <c r="K168" t="n">
-        <v>0.001021060277707875</v>
+        <v>0.001874741399660707</v>
       </c>
     </row>
     <row r="169">
@@ -7585,11 +7585,11 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>16186</v>
+        <v>20902</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="n">
-        <v>25.41743866598699</v>
+        <v>25.84259792405646</v>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
@@ -7610,31 +7610,31 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>906</v>
+        <v>1513</v>
       </c>
       <c r="D170" t="n">
-        <v>0.003991199308075011</v>
+        <v>0.006653724703937769</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1163014159537852</v>
+        <v>0.2188406629720703</v>
       </c>
       <c r="F170" t="n">
-        <v>906</v>
+        <v>1513</v>
       </c>
       <c r="G170" t="n">
-        <v>0.03694851382169873</v>
+        <v>0.07204371027182788</v>
       </c>
       <c r="H170" t="n">
-        <v>0.04005363839678466</v>
+        <v>0.0669580657267943</v>
       </c>
       <c r="I170" t="n">
-        <v>0.01883252349216491</v>
+        <v>0.04056993499398232</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01438384014181793</v>
+        <v>0.02896397700533271</v>
       </c>
       <c r="K170" t="n">
-        <v>0.001617831992916763</v>
+        <v>0.002649607020430267</v>
       </c>
     </row>
     <row r="171">
@@ -7645,31 +7645,31 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>821</v>
+        <v>1232</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3237626295303926</v>
+        <v>0.5275298744672909</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5038253109669313</v>
+        <v>0.8429404189810157</v>
       </c>
       <c r="F171" t="n">
-        <v>821</v>
+        <v>1232</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0324202561751008</v>
+        <v>0.05764434486627579</v>
       </c>
       <c r="H171" t="n">
-        <v>0.3643343854928389</v>
+        <v>0.5960395078873262</v>
       </c>
       <c r="I171" t="n">
-        <v>0.0294327714946121</v>
+        <v>0.05231862096115947</v>
       </c>
       <c r="J171" t="n">
-        <v>0.07164487754926085</v>
+        <v>0.1276149364421144</v>
       </c>
       <c r="K171" t="n">
-        <v>0.001551448600366712</v>
+        <v>0.002380125690251589</v>
       </c>
     </row>
     <row r="172">
@@ -7680,31 +7680,31 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>510</v>
+        <v>753</v>
       </c>
       <c r="D172" t="n">
-        <v>0.2144146066857502</v>
+        <v>0.315056751598604</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3591326150344685</v>
+        <v>0.5583065359387547</v>
       </c>
       <c r="F172" t="n">
-        <v>510</v>
+        <v>753</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0255010814871639</v>
+        <v>0.04307447781320661</v>
       </c>
       <c r="H172" t="n">
-        <v>0.2408392425859347</v>
+        <v>0.35823474440258</v>
       </c>
       <c r="I172" t="n">
-        <v>0.0184709383174777</v>
+        <v>0.03288194630295038</v>
       </c>
       <c r="J172" t="n">
-        <v>0.07055116491392255</v>
+        <v>0.1184132760390639</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0009918006835505366</v>
+        <v>0.001454991055652499</v>
       </c>
     </row>
     <row r="173">
@@ -7715,31 +7715,31 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1504</v>
+        <v>2234</v>
       </c>
       <c r="D173" t="n">
-        <v>0.007230586721561849</v>
+        <v>0.0107922995230183</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4391675519291312</v>
+        <v>0.6290211509913206</v>
       </c>
       <c r="F173" t="n">
-        <v>1504</v>
+        <v>2234</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1152965890942141</v>
+        <v>0.291994598461315</v>
       </c>
       <c r="H173" t="n">
-        <v>0.07388390123378485</v>
+        <v>0.1091575589962304</v>
       </c>
       <c r="I173" t="n">
-        <v>0.2231812776299194</v>
+        <v>0.1802221313118935</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01581407722551376</v>
+        <v>0.03114287275820971</v>
       </c>
       <c r="K173" t="n">
-        <v>0.003022749908268452</v>
+        <v>0.004414593800902367</v>
       </c>
     </row>
     <row r="174">
@@ -7750,31 +7750,31 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1027</v>
+        <v>1302</v>
       </c>
       <c r="D174" t="n">
-        <v>0.4066300628473982</v>
+        <v>0.5403420911170542</v>
       </c>
       <c r="E174" t="n">
-        <v>0.794387590023689</v>
+        <v>1.087224917951971</v>
       </c>
       <c r="F174" t="n">
-        <v>1027</v>
+        <v>1302</v>
       </c>
       <c r="G174" t="n">
-        <v>0.09184550831560045</v>
+        <v>0.1227801380446181</v>
       </c>
       <c r="H174" t="n">
-        <v>0.4676308324560523</v>
+        <v>0.6245433553121984</v>
       </c>
       <c r="I174" t="n">
-        <v>0.1016716035082936</v>
+        <v>0.1244826040929183</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1250645738327876</v>
+        <v>0.2048764231149107</v>
       </c>
       <c r="K174" t="n">
-        <v>0.002272279816679657</v>
+        <v>0.00291078444570303</v>
       </c>
     </row>
     <row r="175">
@@ -7785,31 +7785,31 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>654</v>
+        <v>817</v>
       </c>
       <c r="D175" t="n">
-        <v>0.2804460462648422</v>
+        <v>0.3284042411250994</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5563400610117242</v>
+        <v>0.692364162998274</v>
       </c>
       <c r="F175" t="n">
-        <v>654</v>
+        <v>817</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07409717491827905</v>
+        <v>0.09459918143693358</v>
       </c>
       <c r="H175" t="n">
-        <v>0.3207399873062968</v>
+        <v>0.3818058172473684</v>
       </c>
       <c r="I175" t="n">
-        <v>0.06209407083224505</v>
+        <v>0.06518919090740383</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0941607627319172</v>
+        <v>0.144110852968879</v>
       </c>
       <c r="K175" t="n">
-        <v>0.001466080662794411</v>
+        <v>0.001816741074435413</v>
       </c>
     </row>
     <row r="176">
@@ -7820,31 +7820,31 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>510</v>
+        <v>753</v>
       </c>
       <c r="D176" t="n">
-        <v>0.3694350466830656</v>
+        <v>0.6645248521817848</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5639359650667757</v>
+        <v>1.018247303902172</v>
       </c>
       <c r="F176" t="n">
-        <v>510</v>
+        <v>753</v>
       </c>
       <c r="G176" t="n">
-        <v>0.02579986851196736</v>
+        <v>0.04399140854366124</v>
       </c>
       <c r="H176" t="n">
-        <v>0.3959330368088558</v>
+        <v>0.7081971495645121</v>
       </c>
       <c r="I176" t="n">
-        <v>0.01889732840936631</v>
+        <v>0.03388093248941004</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1193715739063919</v>
+        <v>0.2262525928672403</v>
       </c>
       <c r="K176" t="n">
-        <v>0.00102699117269367</v>
+        <v>0.001537875039502978</v>
       </c>
     </row>
     <row r="177">
@@ -7855,11 +7855,11 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>18635</v>
+        <v>19816</v>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="n">
-        <v>25.22874373674858</v>
+        <v>25.26280625769868</v>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
@@ -7880,31 +7880,31 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1344</v>
+        <v>1834</v>
       </c>
       <c r="D178" t="n">
-        <v>0.00596367206890136</v>
+        <v>0.007670372724533081</v>
       </c>
       <c r="E178" t="n">
-        <v>0.2245176179567352</v>
+        <v>0.2432153110858053</v>
       </c>
       <c r="F178" t="n">
-        <v>1344</v>
+        <v>1834</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08241893409285694</v>
+        <v>0.08444282703567296</v>
       </c>
       <c r="H178" t="n">
-        <v>0.06105166825000197</v>
+        <v>0.0790212017018348</v>
       </c>
       <c r="I178" t="n">
-        <v>0.04452133970335126</v>
+        <v>0.04118671745527536</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02738085098098963</v>
+        <v>0.0259972793282941</v>
       </c>
       <c r="K178" t="n">
-        <v>0.002403449499979615</v>
+        <v>0.003227518405765295</v>
       </c>
     </row>
     <row r="179">
@@ -7915,31 +7915,31 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1580</v>
+        <v>1650</v>
       </c>
       <c r="D179" t="n">
-        <v>0.6224873325554654</v>
+        <v>0.6103471766691655</v>
       </c>
       <c r="E179" t="n">
-        <v>1.041810509981588</v>
+        <v>0.9426989610074088</v>
       </c>
       <c r="F179" t="n">
-        <v>1580</v>
+        <v>1650</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09142130485270172</v>
+        <v>0.06757925602141768</v>
       </c>
       <c r="H179" t="n">
-        <v>0.706243367632851</v>
+        <v>0.6939468493219465</v>
       </c>
       <c r="I179" t="n">
-        <v>0.07459518068935722</v>
+        <v>0.05521501949988306</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1579068186692894</v>
+        <v>0.1137049335520715</v>
       </c>
       <c r="K179" t="n">
-        <v>0.003033747081644833</v>
+        <v>0.003116782056167722</v>
       </c>
     </row>
     <row r="180">
@@ -7950,31 +7950,31 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>902</v>
+        <v>1026</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3914791967254132</v>
+        <v>0.3872394415084273</v>
       </c>
       <c r="E180" t="n">
-        <v>0.8280115219531581</v>
+        <v>0.7655130289494991</v>
       </c>
       <c r="F180" t="n">
-        <v>902</v>
+        <v>1026</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0685456192586571</v>
+        <v>0.05173203488811851</v>
       </c>
       <c r="H180" t="n">
-        <v>0.4427890022052452</v>
+        <v>0.4411557496059686</v>
       </c>
       <c r="I180" t="n">
-        <v>0.04413386317901313</v>
+        <v>0.03319683333393186</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2657864600187168</v>
+        <v>0.231599138234742</v>
       </c>
       <c r="K180" t="n">
-        <v>0.001741378917358816</v>
+        <v>0.001934777363203466</v>
       </c>
     </row>
     <row r="181">
@@ -7985,31 +7985,31 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1526</v>
+        <v>3046</v>
       </c>
       <c r="D181" t="n">
-        <v>0.008263885858468711</v>
+        <v>0.01386748056393117</v>
       </c>
       <c r="E181" t="n">
-        <v>0.2969347599428147</v>
+        <v>0.7039771740091965</v>
       </c>
       <c r="F181" t="n">
-        <v>1526</v>
+        <v>3046</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1178912366740406</v>
+        <v>0.237034306046553</v>
       </c>
       <c r="H181" t="n">
-        <v>0.07412302424199879</v>
+        <v>0.1483251651516184</v>
       </c>
       <c r="I181" t="n">
-        <v>0.07786144968122244</v>
+        <v>0.2591695955488831</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01607994118239731</v>
+        <v>0.03666859294753522</v>
       </c>
       <c r="K181" t="n">
-        <v>0.003181647160090506</v>
+        <v>0.006104427040554583</v>
       </c>
     </row>
     <row r="182">
@@ -8020,31 +8020,31 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1581</v>
+        <v>1900</v>
       </c>
       <c r="D182" t="n">
-        <v>0.8417864493094385</v>
+        <v>0.6590151082491502</v>
       </c>
       <c r="E182" t="n">
-        <v>1.495718040969223</v>
+        <v>1.479049891000614</v>
       </c>
       <c r="F182" t="n">
-        <v>1581</v>
+        <v>1900</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1454362072981894</v>
+        <v>0.2879090625792742</v>
       </c>
       <c r="H182" t="n">
-        <v>0.9389290214749053</v>
+        <v>0.7730097912717611</v>
       </c>
       <c r="I182" t="n">
-        <v>0.1327076319139451</v>
+        <v>0.1966165103949606</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2657578614307567</v>
+        <v>0.2061441803816706</v>
       </c>
       <c r="K182" t="n">
-        <v>0.003872478497214615</v>
+        <v>0.004116480704396963</v>
       </c>
     </row>
     <row r="183">
@@ -8055,31 +8055,31 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>902</v>
+        <v>1216</v>
       </c>
       <c r="D183" t="n">
-        <v>0.3944395160069689</v>
+        <v>0.4271169140702114</v>
       </c>
       <c r="E183" t="n">
-        <v>0.8057613000273705</v>
+        <v>0.8939445209689438</v>
       </c>
       <c r="F183" t="n">
-        <v>902</v>
+        <v>1216</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1033634601626545</v>
+        <v>0.1375632961280644</v>
       </c>
       <c r="H183" t="n">
-        <v>0.4512875442160293</v>
+        <v>0.5014989550691098</v>
       </c>
       <c r="I183" t="n">
-        <v>0.06289151532109827</v>
+        <v>0.1000829669646919</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1810363051481545</v>
+        <v>0.145003420766443</v>
       </c>
       <c r="K183" t="n">
-        <v>0.002072313567623496</v>
+        <v>0.002616178593598306</v>
       </c>
     </row>
     <row r="184">
@@ -8090,31 +8090,31 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>902</v>
+        <v>1026</v>
       </c>
       <c r="D184" t="n">
-        <v>1.022739870357327</v>
+        <v>0.7018630739767104</v>
       </c>
       <c r="E184" t="n">
-        <v>1.622519913013093</v>
+        <v>1.070110730011947</v>
       </c>
       <c r="F184" t="n">
-        <v>902</v>
+        <v>1026</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06889324414078146</v>
+        <v>0.05245544062927365</v>
       </c>
       <c r="H184" t="n">
-        <v>1.074897117563523</v>
+        <v>0.756449050270021</v>
       </c>
       <c r="I184" t="n">
-        <v>0.04518405476119369</v>
+        <v>0.03432594973128289</v>
       </c>
       <c r="J184" t="n">
-        <v>0.4264574187109247</v>
+        <v>0.2189717583823949</v>
       </c>
       <c r="K184" t="n">
-        <v>0.001840636366978288</v>
+        <v>0.002025066292844713</v>
       </c>
     </row>
     <row r="185">
@@ -8125,11 +8125,11 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>21345</v>
+        <v>21084</v>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="n">
-        <v>25.05129610700533</v>
+        <v>25.71206705376972</v>
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
@@ -8150,31 +8150,31 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1909</v>
+        <v>1288</v>
       </c>
       <c r="D186" t="n">
-        <v>0.007843880681321025</v>
+        <v>0.005919299088418484</v>
       </c>
       <c r="E186" t="n">
-        <v>0.2471873669419438</v>
+        <v>0.1862882669083774</v>
       </c>
       <c r="F186" t="n">
-        <v>1909</v>
+        <v>1288</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08144929283298552</v>
+        <v>0.06303298065904528</v>
       </c>
       <c r="H186" t="n">
-        <v>0.08158700075000525</v>
+        <v>0.05692328885197639</v>
       </c>
       <c r="I186" t="n">
-        <v>0.04348795395344496</v>
+        <v>0.03461843729019165</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02787062327843159</v>
+        <v>0.02281572145875543</v>
       </c>
       <c r="K186" t="n">
-        <v>0.003375375526957214</v>
+        <v>0.002295746584422886</v>
       </c>
     </row>
     <row r="187">
@@ -8185,31 +8185,31 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1889</v>
+        <v>1153</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6470749285072088</v>
+        <v>0.5324101943988353</v>
       </c>
       <c r="E187" t="n">
-        <v>0.9960570129333064</v>
+        <v>0.8210878199897707</v>
       </c>
       <c r="F187" t="n">
-        <v>1889</v>
+        <v>1153</v>
       </c>
       <c r="G187" t="n">
-        <v>0.07599508308339864</v>
+        <v>0.05960173008497804</v>
       </c>
       <c r="H187" t="n">
-        <v>0.7461432432755828</v>
+        <v>0.5963148012524471</v>
       </c>
       <c r="I187" t="n">
-        <v>0.06339601799845695</v>
+        <v>0.04986600915435702</v>
       </c>
       <c r="J187" t="n">
-        <v>0.09679535427130759</v>
+        <v>0.1064294705865905</v>
       </c>
       <c r="K187" t="n">
-        <v>0.003567922511138022</v>
+        <v>0.002211908460594714</v>
       </c>
     </row>
     <row r="188">
@@ -8220,31 +8220,31 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1192</v>
+        <v>680</v>
       </c>
       <c r="D188" t="n">
-        <v>0.4050948297372088</v>
+        <v>0.3266439503058791</v>
       </c>
       <c r="E188" t="n">
-        <v>0.6717750019161031</v>
+        <v>0.5503388280048966</v>
       </c>
       <c r="F188" t="n">
-        <v>1192</v>
+        <v>680</v>
       </c>
       <c r="G188" t="n">
-        <v>0.05776684230659157</v>
+        <v>0.04325737815815955</v>
       </c>
       <c r="H188" t="n">
-        <v>0.4694734709337354</v>
+        <v>0.3660290736006573</v>
       </c>
       <c r="I188" t="n">
-        <v>0.03871005889959633</v>
+        <v>0.03013018297497183</v>
       </c>
       <c r="J188" t="n">
-        <v>0.09709284384734929</v>
+        <v>0.1055373951094225</v>
       </c>
       <c r="K188" t="n">
-        <v>0.002282958594150841</v>
+        <v>0.001312629785388708</v>
       </c>
     </row>
     <row r="189">
@@ -8255,31 +8255,31 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3557</v>
+        <v>1816</v>
       </c>
       <c r="D189" t="n">
-        <v>0.01622108381707221</v>
+        <v>0.0086378586711362</v>
       </c>
       <c r="E189" t="n">
-        <v>0.8973468890180811</v>
+        <v>0.3780094400281087</v>
       </c>
       <c r="F189" t="n">
-        <v>3557</v>
+        <v>1816</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2775547723285854</v>
+        <v>0.1408754230942577</v>
       </c>
       <c r="H189" t="n">
-        <v>0.1730440307874233</v>
+        <v>0.087846037466079</v>
       </c>
       <c r="I189" t="n">
-        <v>0.3679945467738435</v>
+        <v>0.1158098460873589</v>
       </c>
       <c r="J189" t="n">
-        <v>0.05260317411739379</v>
+        <v>0.02017020503990352</v>
       </c>
       <c r="K189" t="n">
-        <v>0.007334107649512589</v>
+        <v>0.003573533613234758</v>
       </c>
     </row>
     <row r="190">
@@ -8290,31 +8290,31 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2231</v>
+        <v>1237</v>
       </c>
       <c r="D190" t="n">
-        <v>0.7411078704753891</v>
+        <v>0.6783543978817761</v>
       </c>
       <c r="E190" t="n">
-        <v>1.685229814960621</v>
+        <v>1.192276321933605</v>
       </c>
       <c r="F190" t="n">
-        <v>2231</v>
+        <v>1237</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2046524699544534</v>
+        <v>0.1161484898766503</v>
       </c>
       <c r="H190" t="n">
-        <v>0.8818660585675389</v>
+        <v>0.7566107377642766</v>
       </c>
       <c r="I190" t="n">
-        <v>0.2563272879924625</v>
+        <v>0.1173698641359806</v>
       </c>
       <c r="J190" t="n">
-        <v>0.3246404769597575</v>
+        <v>0.1918097957968712</v>
       </c>
       <c r="K190" t="n">
-        <v>0.004944237065501511</v>
+        <v>0.003044867306016386</v>
       </c>
     </row>
     <row r="191">
@@ -8325,31 +8325,31 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1436</v>
+        <v>736</v>
       </c>
       <c r="D191" t="n">
-        <v>0.5899071011226624</v>
+        <v>0.4625642790924758</v>
       </c>
       <c r="E191" t="n">
-        <v>1.16433945891913</v>
+        <v>0.8066542289452627</v>
       </c>
       <c r="F191" t="n">
-        <v>1436</v>
+        <v>736</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1648621950298548</v>
+        <v>0.08551331155467778</v>
       </c>
       <c r="H191" t="n">
-        <v>0.6824320643208921</v>
+        <v>0.51090877444949</v>
       </c>
       <c r="I191" t="n">
-        <v>0.147093009785749</v>
+        <v>0.06240687018726021</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1584616428008303</v>
+        <v>0.1418810595059767</v>
       </c>
       <c r="K191" t="n">
-        <v>0.003212527954019606</v>
+        <v>0.001638019573874772</v>
       </c>
     </row>
     <row r="192">
@@ -8360,31 +8360,31 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1192</v>
+        <v>680</v>
       </c>
       <c r="D192" t="n">
-        <v>0.8327958019217476</v>
+        <v>0.6743247348349541</v>
       </c>
       <c r="E192" t="n">
-        <v>1.181277113966644</v>
+        <v>1.041761606000364</v>
       </c>
       <c r="F192" t="n">
-        <v>1192</v>
+        <v>680</v>
       </c>
       <c r="G192" t="n">
-        <v>0.05967226682696491</v>
+        <v>0.04400451248511672</v>
       </c>
       <c r="H192" t="n">
-        <v>0.898211432970129</v>
+        <v>0.7137886048294604</v>
       </c>
       <c r="I192" t="n">
-        <v>0.03972633834928274</v>
+        <v>0.03081437794025987</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1740993979619816</v>
+        <v>0.2477581914281473</v>
       </c>
       <c r="K192" t="n">
-        <v>0.00240726035553962</v>
+        <v>0.001405910239554942</v>
       </c>
     </row>
     <row r="193">
@@ -8395,11 +8395,11 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>22290</v>
+        <v>19008</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="n">
-        <v>25.73054004099686</v>
+        <v>25.67450976115651</v>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
@@ -8420,31 +8420,31 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1344</v>
+        <v>1540</v>
       </c>
       <c r="D194" t="n">
-        <v>0.005611617118120193</v>
+        <v>0.006674534757621586</v>
       </c>
       <c r="E194" t="n">
-        <v>0.1857357389526442</v>
+        <v>0.2043947749771178</v>
       </c>
       <c r="F194" t="n">
-        <v>1344</v>
+        <v>1540</v>
       </c>
       <c r="G194" t="n">
-        <v>0.05921104887966067</v>
+        <v>0.0662989515112713</v>
       </c>
       <c r="H194" t="n">
-        <v>0.05867335933726281</v>
+        <v>0.06673628103453666</v>
       </c>
       <c r="I194" t="n">
-        <v>0.03524225123692304</v>
+        <v>0.03695101314224303</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0235388302244246</v>
+        <v>0.02378119458444417</v>
       </c>
       <c r="K194" t="n">
-        <v>0.002395843272097409</v>
+        <v>0.00273457879666239</v>
       </c>
     </row>
     <row r="195">
@@ -8455,31 +8455,31 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1284</v>
+        <v>1337</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4742553730029613</v>
+        <v>0.5149135800311342</v>
       </c>
       <c r="E195" t="n">
-        <v>0.7600533589720726</v>
+        <v>0.8054784720297903</v>
       </c>
       <c r="F195" t="n">
-        <v>1284</v>
+        <v>1337</v>
       </c>
       <c r="G195" t="n">
-        <v>0.05665096454322338</v>
+        <v>0.0587218931177631</v>
       </c>
       <c r="H195" t="n">
-        <v>0.5409372510621324</v>
+        <v>0.5856975000351667</v>
       </c>
       <c r="I195" t="n">
-        <v>0.05012475082185119</v>
+        <v>0.0488345850026235</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1027272804640234</v>
+        <v>0.09925527113955468</v>
       </c>
       <c r="K195" t="n">
-        <v>0.002477197558619082</v>
+        <v>0.002594756195321679</v>
       </c>
     </row>
     <row r="196">
@@ -8490,31 +8490,31 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>775</v>
+        <v>823</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3091690695146099</v>
+        <v>0.3419947470538318</v>
       </c>
       <c r="E196" t="n">
-        <v>0.533956166007556</v>
+        <v>0.5694053210318089</v>
       </c>
       <c r="F196" t="n">
-        <v>775</v>
+        <v>823</v>
       </c>
       <c r="G196" t="n">
-        <v>0.04308937804307789</v>
+        <v>0.04467686952557415</v>
       </c>
       <c r="H196" t="n">
-        <v>0.3516763986553997</v>
+        <v>0.3866746644489467</v>
       </c>
       <c r="I196" t="n">
-        <v>0.03091142245102674</v>
+        <v>0.03044160269200802</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1024699207628146</v>
+        <v>0.1011543106287718</v>
       </c>
       <c r="K196" t="n">
-        <v>0.001530372304841876</v>
+        <v>0.001567219500429928</v>
       </c>
     </row>
     <row r="197">
@@ -8525,31 +8525,31 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2228</v>
+        <v>2513</v>
       </c>
       <c r="D197" t="n">
-        <v>0.01013447379227728</v>
+        <v>0.01170794293284416</v>
       </c>
       <c r="E197" t="n">
-        <v>0.4992193200159818</v>
+        <v>0.5535476700169966</v>
       </c>
       <c r="F197" t="n">
-        <v>2228</v>
+        <v>2513</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1745044969720766</v>
+        <v>0.1965846564853564</v>
       </c>
       <c r="H197" t="n">
-        <v>0.1074730751570314</v>
+        <v>0.1209368836134672</v>
       </c>
       <c r="I197" t="n">
-        <v>0.1724054235965014</v>
+        <v>0.1877554117236286</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02847709262277931</v>
+        <v>0.02930325584020466</v>
       </c>
       <c r="K197" t="n">
-        <v>0.004594492376782</v>
+        <v>0.005220052436925471</v>
       </c>
     </row>
     <row r="198">
@@ -8560,31 +8560,31 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1673</v>
+        <v>1585</v>
       </c>
       <c r="D198" t="n">
-        <v>0.5872011434985325</v>
+        <v>0.5962759278481826</v>
       </c>
       <c r="E198" t="n">
-        <v>1.249845351092517</v>
+        <v>1.177344274939969</v>
       </c>
       <c r="F198" t="n">
-        <v>1673</v>
+        <v>1585</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1543310267152265</v>
+        <v>0.1435112862382084</v>
       </c>
       <c r="H198" t="n">
-        <v>0.6910085569834337</v>
+        <v>0.6920748092234135</v>
       </c>
       <c r="I198" t="n">
-        <v>0.1781424043001607</v>
+        <v>0.1505003829952329</v>
       </c>
       <c r="J198" t="n">
-        <v>0.2130850956309587</v>
+        <v>0.1785501348786056</v>
       </c>
       <c r="K198" t="n">
-        <v>0.003722651745192707</v>
+        <v>0.003382386406883597</v>
       </c>
     </row>
     <row r="199">
@@ -8595,31 +8595,31 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1049</v>
+        <v>1015</v>
       </c>
       <c r="D199" t="n">
-        <v>0.400314443744719</v>
+        <v>0.4085392548004165</v>
       </c>
       <c r="E199" t="n">
-        <v>0.8657960790442303</v>
+        <v>0.8187785579357296</v>
       </c>
       <c r="F199" t="n">
-        <v>1049</v>
+        <v>1015</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1223315892275423</v>
+        <v>0.1130445202579722</v>
       </c>
       <c r="H199" t="n">
-        <v>0.4698091821046546</v>
+        <v>0.4716876235324889</v>
       </c>
       <c r="I199" t="n">
-        <v>0.1048748802859336</v>
+        <v>0.08488862530793995</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1602779668755829</v>
+        <v>0.1409807481104508</v>
       </c>
       <c r="K199" t="n">
-        <v>0.002386141801252961</v>
+        <v>0.00219362007919699</v>
       </c>
     </row>
     <row r="200">
@@ -8630,31 +8630,31 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>775</v>
+        <v>823</v>
       </c>
       <c r="D200" t="n">
-        <v>0.6482886208686978</v>
+        <v>0.7843256029300392</v>
       </c>
       <c r="E200" t="n">
-        <v>0.9755231529707089</v>
+        <v>1.29978356603533</v>
       </c>
       <c r="F200" t="n">
-        <v>775</v>
+        <v>823</v>
       </c>
       <c r="G200" t="n">
-        <v>0.04384907276835293</v>
+        <v>0.04621275374665856</v>
       </c>
       <c r="H200" t="n">
-        <v>0.6908958024578169</v>
+        <v>0.8313383889617398</v>
       </c>
       <c r="I200" t="n">
-        <v>0.03160620282869786</v>
+        <v>0.03180674684699625</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2031699635554105</v>
+        <v>0.383739017881453</v>
       </c>
       <c r="K200" t="n">
-        <v>0.001550637767650187</v>
+        <v>0.001739352708682418</v>
       </c>
     </row>
     <row r="201">
@@ -8665,11 +8665,11 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>22508</v>
+        <v>19079</v>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="n">
-        <v>25.21233792114072</v>
+        <v>24.95402143686078</v>
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
@@ -8690,31 +8690,31 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1543.36</v>
+        <v>1564.4</v>
       </c>
       <c r="D202" t="n">
-        <v>0.006679874565452337</v>
+        <v>0.006883778907358647</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2255667962366715</v>
+        <v>0.224803107753396</v>
       </c>
       <c r="F202" t="n">
-        <v>1543.36</v>
+        <v>1564.4</v>
       </c>
       <c r="G202" t="n">
-        <v>0.07024142368230969</v>
+        <v>0.07114783950615675</v>
       </c>
       <c r="H202" t="n">
-        <v>0.07419237428344787</v>
+        <v>0.07552627251017839</v>
       </c>
       <c r="I202" t="n">
-        <v>0.04197930006310344</v>
+        <v>0.03794757190626115</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02878277861047536</v>
+        <v>0.02945066202897579</v>
       </c>
       <c r="K202" t="n">
-        <v>0.002750016096979379</v>
+        <v>0.002765018255449832</v>
       </c>
     </row>
     <row r="203">
@@ -8725,31 +8725,31 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1407.64</v>
+        <v>1387.48</v>
       </c>
       <c r="D203" t="n">
-        <v>0.5679073830926791</v>
+        <v>0.5471804687939584</v>
       </c>
       <c r="E203" t="n">
-        <v>0.8949962334474548</v>
+        <v>0.8665151261491701</v>
       </c>
       <c r="F203" t="n">
-        <v>1407.64</v>
+        <v>1387.48</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06349649973679333</v>
+        <v>0.0617354831378907</v>
       </c>
       <c r="H203" t="n">
-        <v>0.6493419718230143</v>
+        <v>0.6268356404174119</v>
       </c>
       <c r="I203" t="n">
-        <v>0.05305312664248049</v>
+        <v>0.05127662247978151</v>
       </c>
       <c r="J203" t="n">
-        <v>0.118770453222096</v>
+        <v>0.1161316596344113</v>
       </c>
       <c r="K203" t="n">
-        <v>0.002702292962931097</v>
+        <v>0.00263455705717206</v>
       </c>
     </row>
     <row r="204">
@@ -8760,31 +8760,31 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>837.28</v>
+        <v>832.5599999999999</v>
       </c>
       <c r="D204" t="n">
-        <v>0.3438261404167861</v>
+        <v>0.3439608539175242</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5997926019597799</v>
+        <v>0.6005942990723997</v>
       </c>
       <c r="F204" t="n">
-        <v>837.28</v>
+        <v>832.5599999999999</v>
       </c>
       <c r="G204" t="n">
-        <v>0.04714503344148398</v>
+        <v>0.0460895405523479</v>
       </c>
       <c r="H204" t="n">
-        <v>0.3971794108953327</v>
+        <v>0.3970710410550237</v>
       </c>
       <c r="I204" t="n">
-        <v>0.03089520942885429</v>
+        <v>0.03043962243944406</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1183724777912721</v>
+        <v>0.1206084755854681</v>
       </c>
       <c r="K204" t="n">
-        <v>0.001628747074864805</v>
+        <v>0.001588709084317088</v>
       </c>
     </row>
     <row r="205">
@@ -8795,31 +8795,31 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2526.72</v>
+        <v>2514.16</v>
       </c>
       <c r="D205" t="n">
-        <v>0.01177751251962036</v>
+        <v>0.01660767003893852</v>
       </c>
       <c r="E205" t="n">
-        <v>0.6174256518809125</v>
+        <v>0.6054918322805315</v>
       </c>
       <c r="F205" t="n">
-        <v>2526.72</v>
+        <v>2514.16</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2192321271263063</v>
+        <v>0.2155027672834694</v>
       </c>
       <c r="H205" t="n">
-        <v>0.1297716395137831</v>
+        <v>0.1338412102358416</v>
       </c>
       <c r="I205" t="n">
-        <v>0.2183982475101948</v>
+        <v>0.2063756302325055</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03152379439678043</v>
+        <v>0.03104174536187202</v>
       </c>
       <c r="K205" t="n">
-        <v>0.005193416466936469</v>
+        <v>0.005060732546262443</v>
       </c>
     </row>
     <row r="206">
@@ -8830,31 +8830,31 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1556</v>
+        <v>1516.64</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6169305901508778</v>
+        <v>0.6021601383574307</v>
       </c>
       <c r="E206" t="n">
-        <v>1.248657867773436</v>
+        <v>1.194904063297436</v>
       </c>
       <c r="F206" t="n">
-        <v>1556</v>
+        <v>1516.64</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1546360074495897</v>
+        <v>0.1449335683090612</v>
       </c>
       <c r="H206" t="n">
-        <v>0.7129445712873712</v>
+        <v>0.6947075777919963</v>
       </c>
       <c r="I206" t="n">
-        <v>0.1505773014388979</v>
+        <v>0.1425728611368686</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2180908916145563</v>
+        <v>0.2003429678268731</v>
       </c>
       <c r="K206" t="n">
-        <v>0.003539602444507182</v>
+        <v>0.00338641815353185</v>
       </c>
     </row>
     <row r="207">
@@ -8865,31 +8865,31 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>935.6</v>
+        <v>918.28</v>
       </c>
       <c r="D207" t="n">
-        <v>0.3935184818739071</v>
+        <v>0.3824662349559367</v>
       </c>
       <c r="E207" t="n">
-        <v>0.7959160524001345</v>
+        <v>0.7732654923573137</v>
       </c>
       <c r="F207" t="n">
-        <v>935.6</v>
+        <v>918.28</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1072831941163167</v>
+        <v>0.1040709454752505</v>
       </c>
       <c r="H207" t="n">
-        <v>0.4529904057178646</v>
+        <v>0.4401557686412707</v>
       </c>
       <c r="I207" t="n">
-        <v>0.07920113704632968</v>
+        <v>0.07484312811400741</v>
       </c>
       <c r="J207" t="n">
-        <v>0.148945901314728</v>
+        <v>0.146771175544709</v>
       </c>
       <c r="K207" t="n">
-        <v>0.002116623758338392</v>
+        <v>0.002021332685835659</v>
       </c>
     </row>
     <row r="208">
@@ -8900,31 +8900,31 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>837.28</v>
+        <v>832.5599999999999</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7108669464662671</v>
+        <v>0.6856094630481675</v>
       </c>
       <c r="E208" t="n">
-        <v>1.082872567046434</v>
+        <v>1.059761457834393</v>
       </c>
       <c r="F208" t="n">
-        <v>837.28</v>
+        <v>832.5599999999999</v>
       </c>
       <c r="G208" t="n">
-        <v>0.04818337394855916</v>
+        <v>0.04705360676627606</v>
       </c>
       <c r="H208" t="n">
-        <v>0.7579462812002749</v>
+        <v>0.7319979714555666</v>
       </c>
       <c r="I208" t="n">
-        <v>0.03170503089670092</v>
+        <v>0.03137960871681571</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2384891753550619</v>
+        <v>0.2427750612050295</v>
       </c>
       <c r="K208" t="n">
-        <v>0.001702997353859246</v>
+        <v>0.001696426435373723</v>
       </c>
     </row>
     <row r="209">
@@ -8935,11 +8935,11 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>20684.72</v>
+        <v>20594.4</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="n">
-        <v>25.45964766086079</v>
+        <v>25.51779833084438</v>
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
